--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1292 +397,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>11.76484415746223</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.098194579221288</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>4.935992788799798</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>2.43117950221445</v>
+      </c>
+      <c r="F2">
         <v>3.467631391347135</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>4.165053678075622</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.345967664195518</v>
       </c>
-      <c r="H2" t="n">
-        <v>25.77768425910159</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>28.20886376131604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>11.08700214309188</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.399659757831053</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6.064219711954037</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>0.9295686331996423</v>
+      </c>
+      <c r="F3">
         <v>3.820271871823114</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>3.693538167350079</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.8841395862774349</v>
       </c>
-      <c r="H3" t="n">
-        <v>26.9488312383276</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>27.87839987152724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.36241240359256</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.098194579221288</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3.032109855977018</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>0.8580633537227469</v>
+      </c>
+      <c r="F4">
         <v>3.036626359654271</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>3.536366330441566</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.7688170315455957</v>
       </c>
-      <c r="H4" t="n">
-        <v>21.83452656043229</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>22.69258991415504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>12.02195664567166</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.184327487395507</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.089822596434118</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.501610869014807</v>
+      </c>
+      <c r="F5">
         <v>3.663542769389346</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>2.90767898280751</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.6534944768137562</v>
       </c>
-      <c r="H5" t="n">
-        <v>24.5208229585119</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>26.0224338275267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>11.18049759334986</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.227393941482616</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5.006506971496937</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F6">
         <v>3.91822756084422</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>2.986264901261766</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.5766127736591966</v>
       </c>
-      <c r="H6" t="n">
-        <v>24.8955037420946</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>26.18259877267872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>11.99079149558567</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.270460395569725</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>5.782162981165476</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F7">
         <v>4.11413893888643</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>2.829093064353252</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H7" t="n">
-        <v>26.48637794606519</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>27.77347297664931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>12.25569527131661</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.162794260351952</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.641134615771198</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>1.430105589537912</v>
+      </c>
+      <c r="F8">
         <v>3.839863009627335</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>2.436163472081968</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H8" t="n">
-        <v>25.60473659019002</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>27.03484217972794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>13.70487475031527</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.076661352177733</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4.935992788799798</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>2.288168943260659</v>
+      </c>
+      <c r="F9">
         <v>3.408857977934471</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>2.593335308990481</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.4228493673500776</v>
       </c>
-      <c r="H9" t="n">
-        <v>26.14257154556783</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>28.43074048882849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>14.8813591660615</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.313526849656835</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4.512907692616958</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>4.290316768613736</v>
+      </c>
+      <c r="F10">
         <v>3.271720013304924</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>1.964647961356425</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.2306451094636787</v>
       </c>
-      <c r="H10" t="n">
-        <v>26.17480679246032</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>30.46512356107405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>15.81631366864127</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.8182626276550774</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>3.878280048342699</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>4.576337886521317</v>
+      </c>
+      <c r="F11">
         <v>1.821975815792562</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>0.3929295922712851</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H11" t="n">
-        <v>22.99684771374386</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>27.57318560026518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11.52331424429579</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.6890632653937495</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>3.948794231039838</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>2.788705899598928</v>
+      </c>
+      <c r="F12">
         <v>1.626064437750351</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H12" t="n">
-        <v>18.72856298463111</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>21.51726888423003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10.05076090273263</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.4737309949582028</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2.326968029005619</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>3.718274532798569</v>
+      </c>
+      <c r="F13">
         <v>1.018739165819497</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>1.414546532176626</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H13" t="n">
-        <v>15.47694988257897</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>19.19522441537755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>7.962695846971123</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.4091313138275387</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>2.397482211702759</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>2.359674222737553</v>
+      </c>
+      <c r="F14">
         <v>0.6856898231477385</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>1.100202858359598</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H14" t="n">
-        <v>12.74740631189515</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>15.10708053463271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>5.625309590521673</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.5813971301759761</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.55131201933708</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>1.358600310061016</v>
+      </c>
+      <c r="F15">
         <v>0.587734134126633</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.9430310214510838</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>9.288783895612445</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>10.64738420567346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3.459331659545184</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.4737309949582028</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1.057712740457099</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.7150527947689559</v>
+      </c>
+      <c r="F16">
         <v>0.4505961694970853</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.8644451029968269</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>6.305816667454398</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>7.020869462223354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2.687994194916866</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.6675300383501948</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.3525709134856999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="F17">
         <v>0.2546847914548743</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>1.021616939905341</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>4.984396878112976</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>5.127407437066767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>1.753039692337087</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.6029303572195307</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.63462764427426</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="F18">
         <v>0.4701873073013064</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.6286873476340559</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>4.089472348766241</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>4.375493466673823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.044032527880754</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.5383306760888666</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.8461701923656797</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.07150527947689558</v>
+      </c>
+      <c r="F19">
         <v>0.2155025158464321</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>1.335960613722369</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H19" t="n">
-        <v>4.018437377481381</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>4.089942656958277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.262188578482702</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.4091313138275387</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>1.057712740457099</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.2145158384306867</v>
+      </c>
+      <c r="F20">
         <v>0.4310050316928641</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>1.100202858359598</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H20" t="n">
-        <v>4.298681374397082</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>4.513197212827769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.165977930976489</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1937990433919921</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.480797836639939</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.500536956338269</v>
+      </c>
+      <c r="F21">
         <v>0.7640543743646229</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>1.807476124447911</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>6.412105309820955</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>6.912642266159224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>4.355329724517474</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.1722658163484374</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.18593966361134</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>2.073653104829972</v>
+      </c>
+      <c r="F22">
         <v>2.155025158464321</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>3.300608575078795</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H22" t="n">
-        <v>12.24605064117493</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>14.3197037460049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>8.274347347831052</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.3875980867839841</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>3.737251682948418</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>6.006443476059229</v>
+      </c>
+      <c r="F23">
         <v>3.173764324283818</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>4.636569188801166</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.4612902189273574</v>
       </c>
-      <c r="H23" t="n">
-        <v>20.67082084957579</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>26.67726432563502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>11.90508733284919</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.5813971301759761</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>3.948794231039838</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>6.5069804323975</v>
+      </c>
+      <c r="F24">
         <v>3.350084564521809</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>5.893943884069277</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.691935328391036</v>
       </c>
-      <c r="H24" t="n">
-        <v>26.37124247104712</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>32.87822290344462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>12.94132857320845</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.9905284440035148</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>4.935992788799798</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>3.07472701750651</v>
+      </c>
+      <c r="F25">
         <v>3.408857977934471</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>4.007881841167109</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H25" t="n">
-        <v>26.59211643773158</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>29.66684345523809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>12.13103467097264</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.055128125134179</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>4.794964423405517</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>2.502684781691345</v>
+      </c>
+      <c r="F26">
         <v>3.604769355976682</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>4.400811433438394</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H26" t="n">
-        <v>26.29423482154565</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>28.796919603237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>11.4298187940378</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.356593303743944</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>5.852677163862617</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.001073912676538</v>
+      </c>
+      <c r="F27">
         <v>3.957409836452662</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>3.850710004258594</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.8072578831228755</v>
       </c>
-      <c r="H27" t="n">
-        <v>27.2544669854785</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>28.25554089815504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>11.58564454446777</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.248927168526171</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>4.583421875314098</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>1.001073912676538</v>
+      </c>
+      <c r="F28">
         <v>3.545995942564019</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>4.086467759621365</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H28" t="n">
-        <v>25.55018836099806</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>26.5512622736746</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>12.09207823336515</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.33506007670039</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>3.878280048342699</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>1.072579192153434</v>
+      </c>
+      <c r="F29">
         <v>3.545995942564019</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>3.300608575078795</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H29" t="n">
-        <v>24.45954968866929</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>25.53212888082273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>12.55176419713354</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.162794260351952</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3.243652404068439</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.215589751107225</v>
+      </c>
+      <c r="F30">
         <v>4.408006005949747</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>3.693538167350079</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.4612902189273574</v>
       </c>
-      <c r="H30" t="n">
-        <v>25.52104525378112</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>26.73663500488834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>11.28178433112935</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.162794260351952</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4.301365144525539</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F31">
         <v>3.448040253542913</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>2.593335308990481</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.2306451094636787</v>
       </c>
-      <c r="H31" t="n">
-        <v>23.01796440800391</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>24.30505943858803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>12.56734677217654</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.033594898090624</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6.487304808136877</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F32">
         <v>3.957409836452662</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>2.436163472081968</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.5381719220819169</v>
       </c>
-      <c r="H32" t="n">
-        <v>27.01999170902059</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>28.30708673960471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>12.62967707234852</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.076661352177733</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>5.500106250376916</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>1.859137266399285</v>
+      </c>
+      <c r="F33">
         <v>3.663542769389346</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>3.064850819716023</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.4997310705046371</v>
       </c>
-      <c r="H33" t="n">
-        <v>26.43456933451318</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>28.29370660091246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>15.07614135409894</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.9259287628728509</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>4.794964423405517</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>3.789779812275466</v>
+      </c>
+      <c r="F34">
         <v>3.056217497458491</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>1.728890205993654</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.3844085157727978</v>
       </c>
-      <c r="H34" t="n">
-        <v>25.96655075960225</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>29.75633057187772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>15.73840079342629</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.7105964924373042</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>3.948794231039838</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>4.218811489136838</v>
+      </c>
+      <c r="F35">
         <v>2.370527674310753</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>1.100202858359598</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.3075268126182382</v>
       </c>
-      <c r="H35" t="n">
-        <v>24.17604886219203</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>28.39486035132886</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>11.8427570326772</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.5813971301759761</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>4.019308413736978</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>4.433327327567525</v>
+      </c>
+      <c r="F36">
         <v>1.469335335316583</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>1.021616939905341</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.1922042578863989</v>
       </c>
-      <c r="H36" t="n">
-        <v>19.12661910969848</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>23.55994643726601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>10.99350669283391</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.5383306760888666</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>2.326968029005619</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>4.361822048090629</v>
+      </c>
+      <c r="F37">
         <v>1.273423957274371</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>1.335960613722369</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H37" t="n">
-        <v>16.54507167207969</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>20.90689372017032</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>8.741824599120942</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.3229984056533201</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>1.903882932822779</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>3.003221738029615</v>
+      </c>
+      <c r="F38">
         <v>0.8228277877772862</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>1.335960613722369</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H38" t="n">
-        <v>13.20437604225126</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>16.20759778028087</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>6.256403879763022</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.452197767914648</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.9166843750628197</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.287095030584121</v>
+      </c>
+      <c r="F39">
         <v>0.587734134126633</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.7858591845425702</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.1153225547318393</v>
       </c>
-      <c r="H39" t="n">
-        <v>9.114201896141534</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>10.40129692672565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>3.685278997668631</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.516797449045312</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.9871985577599595</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.5720422358151647</v>
+      </c>
+      <c r="F40">
         <v>0.4701873073013064</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>1.100202858359598</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>6.759665170134806</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>7.33170740594997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2.843819945346829</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.5383306760888666</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.3525709134856999</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="F41">
         <v>0.3722316182802009</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>1.335960613722369</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>5.442913766923966</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>5.728934884831548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>1.846535142595064</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.6029303572195307</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.5641134615771197</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>0.3575263973844779</v>
+      </c>
+      <c r="F42">
         <v>0.391822756084422</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>1.178788776813855</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>4.584190494289991</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>4.941716891674469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>1.293353728568695</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.6675300383501948</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>1.057712740457099</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.1430105589537912</v>
+      </c>
+      <c r="F43">
         <v>0.3134582048675376</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.7858591845425702</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43">
         <v>0.03844085157727977</v>
       </c>
-      <c r="H43" t="n">
-        <v>4.156354748363376</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>4.299365307317167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.433596903955662</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.6675300383501948</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.7051418269713997</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.2860211179075823</v>
+      </c>
+      <c r="F44">
         <v>0.4310050316928641</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>0.4715155107255419</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>3.708789311695662</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>3.994810429603244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.932239305331545</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.2153322704355467</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.339769471245659</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.4290316768613734</v>
+      </c>
+      <c r="F45">
         <v>0.7248720987561807</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>1.021616939905341</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.1537634063091191</v>
       </c>
-      <c r="H45" t="n">
-        <v>5.387593491983392</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>5.816625168844765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>4.487781612382941</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.1722658163484374</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2.115425480914199</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>2.145158384306868</v>
+      </c>
+      <c r="F46">
         <v>2.233389709681205</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>3.457780411987307</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.07688170315455954</v>
       </c>
-      <c r="H46" t="n">
-        <v>12.54352473446865</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>14.68868311877552</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>8.531459836040488</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.3660648597404293</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>3.596223317554138</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>6.220959314489916</v>
+      </c>
+      <c r="F47">
         <v>3.291311151109145</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>4.872326944163936</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.4228493673500776</v>
       </c>
-      <c r="H47" t="n">
-        <v>21.08023547595822</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>27.30119479044813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>12.27127784635961</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.5598639031324217</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3.807765865645559</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>6.793001550305076</v>
+      </c>
+      <c r="F48">
         <v>3.467631391347135</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>6.208287557886305</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.6534944768137562</v>
       </c>
-      <c r="H48" t="n">
-        <v>26.96832104118478</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>33.76132259148986</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>13.34647552432635</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.9689952169599602</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>4.794964423405517</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>3.217737576460301</v>
+      </c>
+      <c r="F49">
         <v>3.545995942564019</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>4.243639596529877</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.2690859610409584</v>
       </c>
-      <c r="H49" t="n">
-        <v>27.16915666482668</v>
+      <c r="I49">
+        <v>30.38689424128698</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>11.76484415746223</v>
+        <v>17.05390887868655</v>
       </c>
       <c r="C2">
-        <v>1.098194579221288</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="D2">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E2">
-        <v>2.43117950221445</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="F2">
-        <v>3.467631391347135</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="G2">
-        <v>4.165053678075622</v>
+        <v>6.037516940306141</v>
       </c>
       <c r="H2">
-        <v>0.345967664195518</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I2">
-        <v>28.20886376131604</v>
+        <v>40.89058773053376</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>11.08700214309188</v>
+        <v>16.07133267176885</v>
       </c>
       <c r="C3">
-        <v>1.399659757831053</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="D3">
-        <v>6.064219711954037</v>
+        <v>8.790481965067285</v>
       </c>
       <c r="E3">
-        <v>0.9295686331996423</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="F3">
-        <v>3.820271871823114</v>
+        <v>5.537733226373159</v>
       </c>
       <c r="G3">
-        <v>3.693538167350079</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="H3">
-        <v>0.8841395862774349</v>
+        <v>1.281617991586508</v>
       </c>
       <c r="I3">
-        <v>27.87839987152724</v>
+        <v>40.41155877029211</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>10.36241240359256</v>
+        <v>15.02099258851199</v>
       </c>
       <c r="C4">
-        <v>1.098194579221288</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="D4">
-        <v>3.032109855977018</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="E4">
-        <v>0.8580633537227469</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="F4">
-        <v>3.036626359654271</v>
+        <v>4.401787949168408</v>
       </c>
       <c r="G4">
-        <v>3.536366330441566</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H4">
-        <v>0.7688170315455957</v>
+        <v>1.114450427466528</v>
       </c>
       <c r="I4">
-        <v>22.69258991415504</v>
+        <v>32.89438903208387</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>12.02195664567166</v>
+        <v>17.42661019855188</v>
       </c>
       <c r="C5">
-        <v>1.184327487395507</v>
+        <v>1.716759931728966</v>
       </c>
       <c r="D5">
-        <v>4.089822596434118</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="E5">
-        <v>1.501610869014807</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="F5">
-        <v>3.663542769389346</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="G5">
-        <v>2.90767898280751</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="H5">
-        <v>0.6534944768137562</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="I5">
-        <v>26.0224338275267</v>
+        <v>37.7212149482496</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>11.18049759334986</v>
+        <v>16.20686042444715</v>
       </c>
       <c r="C6">
-        <v>1.227393941482616</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="D6">
-        <v>5.006506971496937</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="E6">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F6">
-        <v>3.91822756084422</v>
+        <v>5.679726386023754</v>
       </c>
       <c r="G6">
-        <v>2.986264901261766</v>
+        <v>4.328785730785537</v>
       </c>
       <c r="H6">
-        <v>0.5766127736591966</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="I6">
-        <v>26.18259877267872</v>
+        <v>37.95338448178735</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>11.99079149558567</v>
+        <v>17.38143428099244</v>
       </c>
       <c r="C7">
-        <v>1.270460395569725</v>
+        <v>1.841615199491072</v>
       </c>
       <c r="D7">
-        <v>5.782162981165476</v>
+        <v>8.381622338785089</v>
       </c>
       <c r="E7">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F7">
-        <v>4.11413893888643</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="G7">
-        <v>2.829093064353252</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="H7">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I7">
-        <v>27.77347297664931</v>
+        <v>40.25946039310818</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>12.25569527131661</v>
+        <v>17.76542958024764</v>
       </c>
       <c r="C8">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D8">
-        <v>5.641134615771198</v>
+        <v>8.177192525643989</v>
       </c>
       <c r="E8">
-        <v>1.430105589537912</v>
+        <v>2.073031319791043</v>
       </c>
       <c r="F8">
-        <v>3.839863009627335</v>
+        <v>5.566131858303279</v>
       </c>
       <c r="G8">
-        <v>2.436163472081968</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="H8">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I8">
-        <v>27.03484217972794</v>
+        <v>39.18876688139693</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>13.70487475031527</v>
+        <v>19.86610974676135</v>
       </c>
       <c r="C9">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D9">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E9">
-        <v>2.288168943260659</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="F9">
-        <v>3.408857977934471</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="G9">
-        <v>2.593335308990481</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="H9">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I9">
-        <v>28.43074048882849</v>
+        <v>41.21221251728442</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>14.8813591660615</v>
+        <v>21.57150063463001</v>
       </c>
       <c r="C10">
-        <v>1.313526849656835</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="D10">
-        <v>4.512907692616958</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="E10">
-        <v>4.290316768613736</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="F10">
-        <v>3.271720013304924</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="G10">
-        <v>1.964647961356425</v>
+        <v>2.84788534920101</v>
       </c>
       <c r="H10">
-        <v>0.2306451094636787</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="I10">
-        <v>30.46512356107405</v>
+        <v>44.16118345766125</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>15.81631366864127</v>
+        <v>22.92677816141303</v>
       </c>
       <c r="C11">
-        <v>0.8182626276550774</v>
+        <v>1.186125043740012</v>
       </c>
       <c r="D11">
-        <v>3.878280048342699</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="E11">
-        <v>4.576337886521317</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="F11">
-        <v>1.821975815792562</v>
+        <v>2.641072769501045</v>
       </c>
       <c r="G11">
-        <v>0.3929295922712851</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="H11">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I11">
-        <v>27.57318560026518</v>
+        <v>39.96913077881915</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>11.52331424429579</v>
+        <v>16.70379551760093</v>
       </c>
       <c r="C12">
-        <v>0.6890632653937495</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="D12">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E12">
-        <v>2.788705899598928</v>
+        <v>4.042411073592534</v>
       </c>
       <c r="F12">
-        <v>1.626064437750351</v>
+        <v>2.357086450199857</v>
       </c>
       <c r="G12">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="H12">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I12">
-        <v>21.51726888423003</v>
+        <v>31.19068454783606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>10.05076090273263</v>
+        <v>14.56923341291765</v>
       </c>
       <c r="C13">
-        <v>0.4737309949582028</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="D13">
-        <v>2.326968029005619</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="E13">
-        <v>3.718274532798569</v>
+        <v>5.389881431456709</v>
       </c>
       <c r="F13">
-        <v>1.018739165819497</v>
+        <v>1.476728860366175</v>
       </c>
       <c r="G13">
-        <v>1.414546532176626</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="H13">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I13">
-        <v>19.19522441537755</v>
+        <v>27.82472965255162</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>7.962695846971123</v>
+        <v>11.54244693643554</v>
       </c>
       <c r="C14">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D14">
-        <v>2.397482211702759</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="E14">
-        <v>2.359674222737553</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="F14">
-        <v>0.6856898231477385</v>
+        <v>0.9939521175541566</v>
       </c>
       <c r="G14">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H14">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I14">
-        <v>15.10708053463271</v>
+        <v>21.89869847933281</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>5.625309590521673</v>
+        <v>8.154253119477943</v>
       </c>
       <c r="C15">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D15">
-        <v>1.55131201933708</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="E15">
-        <v>1.358600310061016</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F15">
-        <v>0.587734134126633</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="G15">
-        <v>0.9430310214510838</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="I15">
-        <v>10.64738420567346</v>
+        <v>15.4340778007458</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>3.459331659545184</v>
+        <v>5.014526849097238</v>
       </c>
       <c r="C16">
-        <v>0.4737309949582028</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="D16">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E16">
-        <v>0.7150527947689559</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="F16">
-        <v>0.4505961694970853</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="G16">
-        <v>0.8644451029968269</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I16">
-        <v>7.020869462223354</v>
+        <v>10.17720816828377</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>2.687994194916866</v>
+        <v>3.896422889501232</v>
       </c>
       <c r="C17">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D17">
-        <v>0.3525709134856999</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="E17">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F17">
-        <v>0.2546847914548743</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="G17">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="I17">
-        <v>5.127407437066767</v>
+        <v>7.432511476165482</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>1.753039692337087</v>
+        <v>2.541145362718194</v>
       </c>
       <c r="C18">
-        <v>0.6029303572195307</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="D18">
-        <v>0.63462764427426</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="E18">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F18">
-        <v>0.4701873073013064</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="G18">
-        <v>0.6286873476340559</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="I18">
-        <v>4.375493466673823</v>
+        <v>6.34256313821327</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.044032527880754</v>
+        <v>1.513393238241058</v>
       </c>
       <c r="C19">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D19">
-        <v>0.8461701923656797</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E19">
-        <v>0.07150527947689558</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F19">
-        <v>0.2155025158464321</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="G19">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H19">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I19">
-        <v>4.089942656958277</v>
+        <v>5.928638616651694</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>1.262188578482702</v>
+        <v>1.829624661157101</v>
       </c>
       <c r="C20">
-        <v>0.4091313138275387</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D20">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E20">
-        <v>0.2145158384306867</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F20">
-        <v>0.4310050316928641</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="G20">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H20">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I20">
-        <v>4.513197212827769</v>
+        <v>6.542173698942515</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>2.165977930976489</v>
+        <v>3.139726270380701</v>
       </c>
       <c r="C21">
-        <v>0.1937990433919921</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="D21">
-        <v>1.480797836639939</v>
+        <v>2.146513037981547</v>
       </c>
       <c r="E21">
-        <v>0.500536956338269</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="F21">
-        <v>0.7640543743646229</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="G21">
-        <v>1.807476124447911</v>
+        <v>2.620054521264929</v>
       </c>
       <c r="I21">
-        <v>6.912642266159224</v>
+        <v>10.02032578929341</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>4.355329724517474</v>
+        <v>6.313334478930984</v>
       </c>
       <c r="C22">
-        <v>0.1722658163484374</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="D22">
-        <v>2.18593966361134</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="E22">
-        <v>2.073653104829972</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="F22">
-        <v>2.155025158464321</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="G22">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H22">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I22">
-        <v>14.3197037460049</v>
+        <v>20.75734447355667</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>8.274347347831052</v>
+        <v>11.99420611202987</v>
       </c>
       <c r="C23">
-        <v>0.3875980867839841</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="D23">
-        <v>3.737251682948418</v>
+        <v>5.417390048239142</v>
       </c>
       <c r="E23">
-        <v>6.006443476059229</v>
+        <v>8.706731543122377</v>
       </c>
       <c r="F23">
-        <v>3.173764324283818</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="G23">
-        <v>4.636569188801166</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="H23">
-        <v>0.4612902189273574</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="I23">
-        <v>26.67726432563502</v>
+        <v>38.67043446159442</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>11.90508733284919</v>
+        <v>17.257200507704</v>
       </c>
       <c r="C24">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D24">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E24">
-        <v>6.5069804323975</v>
+        <v>9.432292505049245</v>
       </c>
       <c r="F24">
-        <v>3.350084564521809</v>
+        <v>4.856166060050308</v>
       </c>
       <c r="G24">
-        <v>5.893943884069277</v>
+        <v>8.543656047603029</v>
       </c>
       <c r="H24">
-        <v>0.691935328391036</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="I24">
-        <v>32.87822290344462</v>
+        <v>47.65912833047147</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>12.94132857320845</v>
+        <v>18.75929976655521</v>
       </c>
       <c r="C25">
-        <v>0.9905284440035148</v>
+        <v>1.435835579264226</v>
       </c>
       <c r="D25">
-        <v>4.935992788799798</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E25">
-        <v>3.07472701750651</v>
+        <v>4.457017337550742</v>
       </c>
       <c r="F25">
-        <v>3.408857977934471</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="G25">
-        <v>4.007881841167109</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="H25">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I25">
-        <v>29.66684345523809</v>
+        <v>43.004024382506</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>12.13103467097264</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="C26">
-        <v>1.055128125134179</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D26">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E26">
-        <v>2.502684781691345</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="F26">
-        <v>3.604769355976682</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="G26">
-        <v>4.400811433438394</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="H26">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I26">
-        <v>28.796919603237</v>
+        <v>41.74301302486616</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>11.4298187940378</v>
+        <v>16.56826776492263</v>
       </c>
       <c r="C27">
-        <v>1.356593303743944</v>
+        <v>1.966470467253179</v>
       </c>
       <c r="D27">
-        <v>5.852677163862617</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="E27">
-        <v>1.001073912676538</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="F27">
-        <v>3.957409836452662</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="G27">
-        <v>3.850710004258594</v>
+        <v>5.581855284433979</v>
       </c>
       <c r="H27">
-        <v>0.8072578831228755</v>
+        <v>1.170172948839855</v>
       </c>
       <c r="I27">
-        <v>28.25554089815504</v>
+        <v>40.95824928454299</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>11.58564454446777</v>
+        <v>16.7941473527198</v>
       </c>
       <c r="C28">
-        <v>1.248927168526171</v>
+        <v>1.810401382550545</v>
       </c>
       <c r="D28">
-        <v>4.583421875314098</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E28">
-        <v>1.001073912676538</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="F28">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G28">
-        <v>4.086467759621365</v>
+        <v>5.923601526338102</v>
       </c>
       <c r="H28">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I28">
-        <v>26.5512622736746</v>
+        <v>38.48778626975267</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>12.09207823336515</v>
+        <v>17.52825601306062</v>
       </c>
       <c r="C29">
-        <v>1.33506007670039</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D29">
-        <v>3.878280048342699</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="E29">
-        <v>1.072579192153434</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F29">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G29">
-        <v>3.300608575078795</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H29">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I29">
-        <v>25.53212888082273</v>
+        <v>37.01048595159259</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>12.55176419713354</v>
+        <v>18.19460079706227</v>
       </c>
       <c r="C30">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D30">
-        <v>3.243652404068439</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="E30">
-        <v>1.215589751107225</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="F30">
-        <v>4.408006005949747</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="G30">
-        <v>3.693538167350079</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="H30">
-        <v>0.4612902189273574</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="I30">
-        <v>26.73663500488834</v>
+        <v>38.75649613317293</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>11.28178433112935</v>
+        <v>16.35368215651532</v>
       </c>
       <c r="C31">
-        <v>1.162794260351952</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D31">
-        <v>4.301365144525539</v>
+        <v>6.235109300803538</v>
       </c>
       <c r="E31">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F31">
-        <v>3.448040253542913</v>
+        <v>4.998159219700902</v>
       </c>
       <c r="G31">
-        <v>2.593335308990481</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="H31">
-        <v>0.2306451094636787</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="I31">
-        <v>24.30505943858803</v>
+        <v>35.23176876880542</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>12.56734677217654</v>
+        <v>18.21718875584199</v>
       </c>
       <c r="C32">
-        <v>1.033594898090624</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="D32">
-        <v>6.487304808136877</v>
+        <v>9.403771404490586</v>
       </c>
       <c r="E32">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F32">
-        <v>3.957409836452662</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="G32">
-        <v>2.436163472081968</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="H32">
-        <v>0.5381719220819169</v>
+        <v>0.78011529922657</v>
       </c>
       <c r="I32">
-        <v>28.30708673960471</v>
+        <v>41.03296834340961</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>12.62967707234852</v>
+        <v>18.30754059096085</v>
       </c>
       <c r="C33">
-        <v>1.076661352177733</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D33">
-        <v>5.500106250376916</v>
+        <v>7.97276271250289</v>
       </c>
       <c r="E33">
-        <v>1.859137266399285</v>
+        <v>2.694940715728355</v>
       </c>
       <c r="F33">
-        <v>3.663542769389346</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="G33">
-        <v>3.064850819716023</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="H33">
-        <v>0.4997310705046371</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I33">
-        <v>28.29370660091246</v>
+        <v>41.01357295975746</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>15.07614135409894</v>
+        <v>21.85385011937647</v>
       </c>
       <c r="C34">
-        <v>0.9259287628728509</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="D34">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E34">
-        <v>3.789779812275466</v>
+        <v>5.493532997446263</v>
       </c>
       <c r="F34">
-        <v>3.056217497458491</v>
+        <v>4.430186581098527</v>
       </c>
       <c r="G34">
-        <v>1.728890205993654</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="H34">
-        <v>0.3844085157727978</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I34">
-        <v>29.75633057187772</v>
+        <v>43.13374179419144</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>15.73840079342629</v>
+        <v>22.81383836751447</v>
       </c>
       <c r="C35">
-        <v>0.7105964924373042</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="D35">
-        <v>3.948794231039838</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E35">
-        <v>4.218811489136838</v>
+        <v>6.115442393383575</v>
       </c>
       <c r="F35">
-        <v>2.370527674310753</v>
+        <v>3.43623446354437</v>
       </c>
       <c r="G35">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H35">
-        <v>0.3075268126182382</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I35">
-        <v>28.39486035132886</v>
+        <v>41.16020191796976</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>11.8427570326772</v>
+        <v>17.16684867258513</v>
       </c>
       <c r="C36">
-        <v>0.5813971301759761</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D36">
-        <v>4.019308413736978</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="E36">
-        <v>4.433327327567525</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F36">
-        <v>1.469335335316583</v>
+        <v>2.129897394758907</v>
       </c>
       <c r="G36">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H36">
-        <v>0.1922042578863989</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I36">
-        <v>23.55994643726601</v>
+        <v>34.15167887906298</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>10.99350669283391</v>
+        <v>15.93580491909055</v>
       </c>
       <c r="C37">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D37">
-        <v>2.326968029005619</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="E37">
-        <v>4.361822048090629</v>
+        <v>6.322745525362682</v>
       </c>
       <c r="F37">
-        <v>1.273423957274371</v>
+        <v>1.845911075457719</v>
       </c>
       <c r="G37">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H37">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I37">
-        <v>20.90689372017032</v>
+        <v>30.3059059404556</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>8.741824599120942</v>
+        <v>12.6718448754214</v>
       </c>
       <c r="C38">
-        <v>0.3229984056533201</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="D38">
-        <v>1.903882932822779</v>
+        <v>2.759802477404846</v>
       </c>
       <c r="E38">
-        <v>3.003221738029615</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="F38">
-        <v>0.8228277877772862</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="G38">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H38">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I38">
-        <v>16.20759778028087</v>
+        <v>23.49396999976366</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>6.256403879763022</v>
+        <v>9.069065450056495</v>
       </c>
       <c r="C39">
-        <v>0.452197767914648</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D39">
-        <v>0.9166843750628197</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="E39">
-        <v>1.287095030584121</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F39">
-        <v>0.587734134126633</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="G39">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H39">
-        <v>0.1153225547318393</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I39">
-        <v>10.40129692672565</v>
+        <v>15.07735824074059</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>3.685278997668631</v>
+        <v>5.342052251403136</v>
       </c>
       <c r="C40">
-        <v>0.516797449045312</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D40">
-        <v>0.9871985577599595</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E40">
-        <v>0.5720422358151647</v>
+        <v>0.8292125279164169</v>
       </c>
       <c r="F40">
-        <v>0.4701873073013064</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="G40">
-        <v>1.100202858359598</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="I40">
-        <v>7.33170740594997</v>
+        <v>10.62778803975531</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>2.843819945346829</v>
+        <v>4.122302477298405</v>
       </c>
       <c r="C41">
-        <v>0.5383306760888666</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D41">
-        <v>0.3525709134856999</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="E41">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F41">
-        <v>0.3722316182802009</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="G41">
-        <v>1.335960613722369</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="I41">
-        <v>5.728934884831548</v>
+        <v>8.304464741751472</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>1.846535142595064</v>
+        <v>2.676673115396497</v>
       </c>
       <c r="C42">
-        <v>0.6029303572195307</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="D42">
-        <v>0.5641134615771197</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="E42">
-        <v>0.3575263973844779</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="F42">
-        <v>0.391822756084422</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G42">
-        <v>1.178788776813855</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="I42">
-        <v>4.941716891674469</v>
+        <v>7.163340920366384</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.293353728568695</v>
+        <v>1.874800578716535</v>
       </c>
       <c r="C43">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D43">
-        <v>1.057712740457099</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E43">
-        <v>0.1430105589537912</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F43">
-        <v>0.3134582048675376</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="G43">
-        <v>0.7858591845425702</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H43">
-        <v>0.03844085157727977</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I43">
-        <v>4.299365307317167</v>
+        <v>6.232210406345844</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>1.433596903955662</v>
+        <v>2.078092207733991</v>
       </c>
       <c r="C44">
-        <v>0.6675300383501948</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D44">
-        <v>0.7051418269713997</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E44">
-        <v>0.2860211179075823</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F44">
-        <v>0.4310050316928641</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="G44">
-        <v>0.4715155107255419</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="I44">
-        <v>3.994810429603244</v>
+        <v>5.790738248824879</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.932239305331545</v>
+        <v>2.800906888684943</v>
       </c>
       <c r="C45">
-        <v>0.2153322704355467</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="D45">
-        <v>1.339769471245659</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="E45">
-        <v>0.4290316768613734</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="F45">
-        <v>0.7248720987561807</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="G45">
-        <v>1.021616939905341</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H45">
-        <v>0.1537634063091191</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I45">
-        <v>5.816625168844765</v>
+        <v>8.431577527360195</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>4.487781612382941</v>
+        <v>6.505332128558578</v>
       </c>
       <c r="C46">
-        <v>0.1722658163484374</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="D46">
-        <v>2.115425480914199</v>
+        <v>3.066447197116496</v>
       </c>
       <c r="E46">
-        <v>2.145158384306868</v>
+        <v>3.109546979686563</v>
       </c>
       <c r="F46">
-        <v>2.233389709681205</v>
+        <v>3.237444040033539</v>
       </c>
       <c r="G46">
-        <v>3.457780411987307</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="H46">
-        <v>0.07688170315455954</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I46">
-        <v>14.68868311877552</v>
+        <v>21.29220413825982</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>8.531459836040488</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="C47">
-        <v>0.3660648597404293</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="D47">
-        <v>3.596223317554138</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="E47">
-        <v>6.220959314489916</v>
+        <v>9.017686241091033</v>
       </c>
       <c r="F47">
-        <v>3.291311151109145</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="G47">
-        <v>4.872326944163936</v>
+        <v>7.062755666018506</v>
       </c>
       <c r="H47">
-        <v>0.4228493673500776</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I47">
-        <v>27.30119479044813</v>
+        <v>39.57486236145828</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>12.27127784635961</v>
+        <v>17.78801753902736</v>
       </c>
       <c r="C48">
-        <v>0.5598639031324217</v>
+        <v>0.811559240453693</v>
       </c>
       <c r="D48">
-        <v>3.807765865645559</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="E48">
-        <v>6.793001550305076</v>
+        <v>9.846898769007453</v>
       </c>
       <c r="F48">
-        <v>3.467631391347135</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="G48">
-        <v>6.208287557886305</v>
+        <v>8.999317703475191</v>
       </c>
       <c r="H48">
-        <v>0.6534944768137562</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="I48">
-        <v>33.76132259148986</v>
+        <v>48.93923892175097</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>13.34647552432635</v>
+        <v>19.34658669482786</v>
       </c>
       <c r="C49">
-        <v>0.9689952169599602</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D49">
-        <v>4.794964423405517</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E49">
-        <v>3.217737576460301</v>
+        <v>4.664320469529844</v>
       </c>
       <c r="F49">
-        <v>3.545995942564019</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G49">
-        <v>4.243639596529877</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="H49">
-        <v>0.2690859610409584</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I49">
-        <v>30.38689424128698</v>
+        <v>44.04778495671776</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>17.05390887868655</v>
+        <v>11.59092906991713</v>
       </c>
       <c r="C2">
-        <v>1.591904663966859</v>
+        <v>1.081960398484973</v>
       </c>
       <c r="D2">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="E2">
-        <v>3.524153243644772</v>
+        <v>2.395240326964322</v>
       </c>
       <c r="F2">
-        <v>5.026557851631022</v>
+        <v>3.41637075338809</v>
       </c>
       <c r="G2">
-        <v>6.037516940306141</v>
+        <v>4.103483319356244</v>
       </c>
       <c r="H2">
-        <v>0.5015026923599379</v>
+        <v>0.3408533595943669</v>
       </c>
       <c r="I2">
-        <v>40.89058773053376</v>
+        <v>27.79186316658354</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>16.07133267176885</v>
+        <v>10.9231073288027</v>
       </c>
       <c r="C3">
-        <v>2.028898101134232</v>
+        <v>1.378969135323986</v>
       </c>
       <c r="D3">
-        <v>8.790481965067285</v>
+        <v>5.974574724907761</v>
       </c>
       <c r="E3">
-        <v>1.347470357864177</v>
+        <v>0.9158271838393002</v>
       </c>
       <c r="F3">
-        <v>5.537733226373159</v>
+        <v>3.763798287630947</v>
       </c>
       <c r="G3">
-        <v>5.354024456497898</v>
+        <v>3.638938037919688</v>
       </c>
       <c r="H3">
-        <v>1.281617991586508</v>
+        <v>0.8710696967411601</v>
       </c>
       <c r="I3">
-        <v>40.41155877029211</v>
+        <v>27.46628439516554</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>15.02099258851199</v>
+        <v>10.20922891588728</v>
       </c>
       <c r="C4">
-        <v>1.591904663966859</v>
+        <v>1.081960398484973</v>
       </c>
       <c r="D4">
-        <v>4.395240982533642</v>
+        <v>2.98728736245388</v>
       </c>
       <c r="E4">
-        <v>1.243818791874626</v>
+        <v>0.8453789389285843</v>
       </c>
       <c r="F4">
-        <v>4.401787949168408</v>
+        <v>2.991737100424599</v>
       </c>
       <c r="G4">
-        <v>5.126193628561817</v>
+        <v>3.484089610774168</v>
       </c>
       <c r="H4">
-        <v>1.114450427466528</v>
+        <v>0.7574519102097043</v>
       </c>
       <c r="I4">
-        <v>32.89438903208387</v>
+        <v>22.35713423716319</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>17.42661019855188</v>
+        <v>11.84424076482261</v>
       </c>
       <c r="C5">
-        <v>1.716759931728966</v>
+        <v>1.166820037581834</v>
       </c>
       <c r="D5">
-        <v>5.928464581091893</v>
+        <v>4.029364349356396</v>
       </c>
       <c r="E5">
-        <v>2.176682885780594</v>
+        <v>1.479413143125023</v>
       </c>
       <c r="F5">
-        <v>5.310544170932208</v>
+        <v>3.609386050189678</v>
       </c>
       <c r="G5">
-        <v>4.214870316817495</v>
+        <v>2.864695902192095</v>
       </c>
       <c r="H5">
-        <v>0.9472828633465497</v>
+        <v>0.6438341236782484</v>
       </c>
       <c r="I5">
-        <v>37.7212149482496</v>
+        <v>25.63775437094589</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>16.20686042444715</v>
+        <v>11.01522067240469</v>
       </c>
       <c r="C6">
-        <v>1.779187565610019</v>
+        <v>1.209249857130265</v>
       </c>
       <c r="D6">
-        <v>7.257258366509039</v>
+        <v>4.932497738005243</v>
       </c>
       <c r="E6">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F6">
-        <v>5.679726386023754</v>
+        <v>3.86030593603174</v>
       </c>
       <c r="G6">
-        <v>4.328785730785537</v>
+        <v>2.942120115764855</v>
       </c>
       <c r="H6">
-        <v>0.8358378205998964</v>
+        <v>0.5680889326572781</v>
       </c>
       <c r="I6">
-        <v>37.95338448178735</v>
+        <v>25.79555166038695</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>17.38143428099244</v>
+        <v>11.81353631695528</v>
       </c>
       <c r="C7">
-        <v>1.841615199491072</v>
+        <v>1.251679676678695</v>
       </c>
       <c r="D7">
-        <v>8.381622338785089</v>
+        <v>5.696687528400423</v>
       </c>
       <c r="E7">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F7">
-        <v>5.963712705324939</v>
+        <v>4.053321232833328</v>
       </c>
       <c r="G7">
-        <v>4.100954902849455</v>
+        <v>2.787271688619335</v>
       </c>
       <c r="H7">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I7">
-        <v>40.25946039310818</v>
+        <v>27.36290859351625</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>17.76542958024764</v>
+        <v>12.07452412382758</v>
       </c>
       <c r="C8">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="D8">
-        <v>8.177192525643989</v>
+        <v>5.557743930146754</v>
       </c>
       <c r="E8">
-        <v>2.073031319791043</v>
+        <v>1.408964898214308</v>
       </c>
       <c r="F8">
-        <v>5.566131858303279</v>
+        <v>3.783099817311106</v>
       </c>
       <c r="G8">
-        <v>3.531377833009253</v>
+        <v>2.400150620755539</v>
       </c>
       <c r="H8">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I8">
-        <v>39.18876688139693</v>
+        <v>26.6351966866363</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>19.86610974676135</v>
+        <v>13.50228094965843</v>
       </c>
       <c r="C9">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="D9">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="E9">
-        <v>3.316850111665667</v>
+        <v>2.254343837142892</v>
       </c>
       <c r="F9">
-        <v>4.941361955840663</v>
+        <v>3.358466164347614</v>
       </c>
       <c r="G9">
-        <v>3.759208660945333</v>
+        <v>2.554999047901058</v>
       </c>
       <c r="H9">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="I9">
-        <v>41.21221251728442</v>
+        <v>28.0104599772545</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>21.57150063463001</v>
+        <v>14.66137385665015</v>
       </c>
       <c r="C10">
-        <v>1.904042833372125</v>
+        <v>1.294109496227125</v>
       </c>
       <c r="D10">
-        <v>6.541754020515191</v>
+        <v>4.446195144117404</v>
       </c>
       <c r="E10">
-        <v>6.219093959373126</v>
+        <v>4.226894694642924</v>
       </c>
       <c r="F10">
-        <v>4.742571532329834</v>
+        <v>3.223355456586503</v>
       </c>
       <c r="G10">
-        <v>2.84788534920101</v>
+        <v>1.935605339318982</v>
       </c>
       <c r="H10">
-        <v>0.3343351282399586</v>
+        <v>0.2272355730629113</v>
       </c>
       <c r="I10">
-        <v>44.16118345766125</v>
+        <v>30.01476956060601</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>22.92677816141303</v>
+        <v>15.58250729267006</v>
       </c>
       <c r="C11">
-        <v>1.186125043740012</v>
+        <v>0.8061665714201763</v>
       </c>
       <c r="D11">
-        <v>5.621819861380242</v>
+        <v>3.820948951975893</v>
       </c>
       <c r="E11">
-        <v>6.633700223331335</v>
+        <v>4.508687674285785</v>
       </c>
       <c r="F11">
-        <v>2.641072769501045</v>
+        <v>1.795042260254759</v>
       </c>
       <c r="G11">
-        <v>0.5695770698402021</v>
+        <v>0.3871210678637965</v>
       </c>
       <c r="H11">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I11">
-        <v>39.96913077881915</v>
+        <v>27.16558198704386</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>16.70379551760093</v>
+        <v>11.35296959894532</v>
       </c>
       <c r="C12">
-        <v>0.9988421420968526</v>
+        <v>0.6788771127748854</v>
       </c>
       <c r="D12">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="E12">
-        <v>4.042411073592534</v>
+        <v>2.7474815515179</v>
       </c>
       <c r="F12">
-        <v>2.357086450199857</v>
+        <v>1.602026963453173</v>
       </c>
       <c r="G12">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="H12">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I12">
-        <v>31.19068454783606</v>
+        <v>21.19918751811533</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>14.56923341291765</v>
+        <v>9.902184437213975</v>
       </c>
       <c r="C13">
-        <v>0.686703972691586</v>
+        <v>0.4667280150327337</v>
       </c>
       <c r="D13">
-        <v>3.373091916828145</v>
+        <v>2.292569371185536</v>
       </c>
       <c r="E13">
-        <v>5.389881431456709</v>
+        <v>3.663308735357201</v>
       </c>
       <c r="F13">
-        <v>1.476728860366175</v>
+        <v>1.003679543368253</v>
       </c>
       <c r="G13">
-        <v>2.050477451424727</v>
+        <v>1.393635844309667</v>
       </c>
       <c r="H13">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I13">
-        <v>27.82472965255162</v>
+        <v>18.91146892401979</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>11.54244693643554</v>
+        <v>7.844986430102852</v>
       </c>
       <c r="C14">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="D14">
-        <v>3.475306823398695</v>
+        <v>2.36204117031237</v>
       </c>
       <c r="E14">
-        <v>3.42050167765522</v>
+        <v>2.324792082053608</v>
       </c>
       <c r="F14">
-        <v>0.9939521175541566</v>
+        <v>0.6755535388055546</v>
       </c>
       <c r="G14">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H14">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I14">
-        <v>21.89869847933281</v>
+        <v>14.88375847455553</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>8.154253119477943</v>
+        <v>5.542152840053093</v>
       </c>
       <c r="C15">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="D15">
-        <v>2.248727944552097</v>
+        <v>1.528379580790358</v>
       </c>
       <c r="E15">
-        <v>1.96937975380149</v>
+        <v>1.338516653303593</v>
       </c>
       <c r="F15">
-        <v>0.8519589579035627</v>
+        <v>0.5790458904047612</v>
       </c>
       <c r="G15">
-        <v>1.366984967616485</v>
+        <v>0.9290905628731118</v>
       </c>
       <c r="I15">
-        <v>15.4340778007458</v>
+        <v>10.48998809132872</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>5.014526849097238</v>
+        <v>3.408193713273647</v>
       </c>
       <c r="C16">
-        <v>0.686703972691586</v>
+        <v>0.4667280150327337</v>
       </c>
       <c r="D16">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="E16">
-        <v>1.036515659895521</v>
+        <v>0.704482449107154</v>
       </c>
       <c r="F16">
-        <v>0.6531685343927315</v>
+        <v>0.4439351826436502</v>
       </c>
       <c r="G16">
-        <v>1.253069553648445</v>
+        <v>0.8516663493003526</v>
       </c>
       <c r="I16">
-        <v>10.17720816828377</v>
+        <v>6.917082696260054</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>3.896422889501232</v>
+        <v>2.648258628557227</v>
       </c>
       <c r="C17">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="D17">
-        <v>0.5110745328527493</v>
+        <v>0.3473589956341721</v>
       </c>
       <c r="E17">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="F17">
-        <v>0.3691822150915439</v>
+        <v>0.2509198858420632</v>
       </c>
       <c r="G17">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="I17">
-        <v>7.432511476165482</v>
+        <v>5.051610979301435</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>2.541145362718194</v>
+        <v>1.727125192537321</v>
       </c>
       <c r="C18">
-        <v>0.8739868743347459</v>
+        <v>0.5940174736780247</v>
       </c>
       <c r="D18">
-        <v>0.9199341591349488</v>
+        <v>0.62524619214151</v>
       </c>
       <c r="E18">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="F18">
-        <v>0.6815671663228503</v>
+        <v>0.4632367123238089</v>
       </c>
       <c r="G18">
-        <v>0.9113233117443232</v>
+        <v>0.6193937085820745</v>
       </c>
       <c r="I18">
-        <v>6.34256313821327</v>
+        <v>4.310812258905601</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.513393238241058</v>
+        <v>1.02859900355556</v>
       </c>
       <c r="C19">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="D19">
-        <v>1.226578878846598</v>
+        <v>0.833661589522013</v>
       </c>
       <c r="E19">
-        <v>0.1036515659895521</v>
+        <v>0.07044824491071539</v>
       </c>
       <c r="F19">
-        <v>0.3123849512313064</v>
+        <v>0.2123168264817457</v>
       </c>
       <c r="G19">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="H19">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I19">
-        <v>5.928638616651694</v>
+        <v>4.029482635072807</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>1.829624661157101</v>
+        <v>1.243530138626872</v>
       </c>
       <c r="C20">
-        <v>0.5930625218700062</v>
+        <v>0.4030832857100882</v>
       </c>
       <c r="D20">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="E20">
-        <v>0.3109546979686564</v>
+        <v>0.2113447347321461</v>
       </c>
       <c r="F20">
-        <v>0.6247699024626128</v>
+        <v>0.4246336529634914</v>
       </c>
       <c r="G20">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H20">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I20">
-        <v>6.542173698942515</v>
+        <v>4.44648038446423</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>3.139726270380701</v>
+        <v>2.133959126779446</v>
       </c>
       <c r="C21">
-        <v>0.2809243524647397</v>
+        <v>0.1909341879679365</v>
       </c>
       <c r="D21">
-        <v>2.146513037981547</v>
+        <v>1.458907781663523</v>
       </c>
       <c r="E21">
-        <v>0.7255609619268649</v>
+        <v>0.4931377143750078</v>
       </c>
       <c r="F21">
-        <v>1.107546645274632</v>
+        <v>0.7527596575261893</v>
       </c>
       <c r="G21">
-        <v>2.620054521264929</v>
+        <v>1.780756912173465</v>
       </c>
       <c r="I21">
-        <v>10.02032578929341</v>
+        <v>6.810455380485568</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>6.313334478930984</v>
+        <v>4.290946589459389</v>
       </c>
       <c r="C22">
-        <v>0.2497105355242132</v>
+        <v>0.1697192781937213</v>
       </c>
       <c r="D22">
-        <v>3.168662103687046</v>
+        <v>2.153625772931867</v>
       </c>
       <c r="E22">
-        <v>3.005895413697013</v>
+        <v>2.042999102410746</v>
       </c>
       <c r="F22">
-        <v>3.123849512313063</v>
+        <v>2.123168264817457</v>
       </c>
       <c r="G22">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="H22">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I22">
-        <v>20.75734447355667</v>
+        <v>14.10802116889004</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>11.99420611202987</v>
+        <v>8.152030908776158</v>
       </c>
       <c r="C23">
-        <v>0.5618487049294794</v>
+        <v>0.381868375935873</v>
       </c>
       <c r="D23">
-        <v>5.417390048239142</v>
+        <v>3.682005353722225</v>
       </c>
       <c r="E23">
-        <v>8.706731543122377</v>
+        <v>5.917652572500093</v>
       </c>
       <c r="F23">
-        <v>4.60057837267924</v>
+        <v>3.12684780818571</v>
       </c>
       <c r="G23">
-        <v>6.721009424114385</v>
+        <v>4.5680286007928</v>
       </c>
       <c r="H23">
-        <v>0.6686702564799173</v>
+        <v>0.4544711461258225</v>
       </c>
       <c r="I23">
-        <v>38.67043446159442</v>
+        <v>26.28290476603868</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>17.257200507704</v>
+        <v>11.72909908532012</v>
       </c>
       <c r="C24">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="D24">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="E24">
-        <v>9.432292505049245</v>
+        <v>6.410790286875103</v>
       </c>
       <c r="F24">
-        <v>4.856166060050308</v>
+        <v>3.300561575307137</v>
       </c>
       <c r="G24">
-        <v>8.543656047603029</v>
+        <v>5.806816017956947</v>
       </c>
       <c r="H24">
-        <v>1.003005384719876</v>
+        <v>0.6817067191887337</v>
       </c>
       <c r="I24">
-        <v>47.65912833047147</v>
+        <v>32.39219699965457</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>18.75929976655521</v>
+        <v>12.75002197690885</v>
       </c>
       <c r="C25">
-        <v>1.435835579264226</v>
+        <v>0.9758858496138976</v>
       </c>
       <c r="D25">
-        <v>7.155043459938489</v>
+        <v>4.86302593887841</v>
       </c>
       <c r="E25">
-        <v>4.457017337550742</v>
+        <v>3.029274531160762</v>
       </c>
       <c r="F25">
-        <v>4.941361955840663</v>
+        <v>3.358466164347614</v>
       </c>
       <c r="G25">
-        <v>5.809686112370061</v>
+        <v>3.948634892210725</v>
       </c>
       <c r="H25">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I25">
-        <v>43.004024382506</v>
+        <v>29.22829011720415</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>17.58472591000991</v>
+        <v>11.95170633235827</v>
       </c>
       <c r="C26">
-        <v>1.529477030085806</v>
+        <v>1.039530578936543</v>
       </c>
       <c r="D26">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="E26">
-        <v>3.627804809634324</v>
+        <v>2.465688571875039</v>
       </c>
       <c r="F26">
-        <v>5.225348275141852</v>
+        <v>3.551481461149201</v>
       </c>
       <c r="G26">
-        <v>6.379263182210263</v>
+        <v>4.335755960074522</v>
       </c>
       <c r="H26">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I26">
-        <v>41.74301302486616</v>
+        <v>28.37122600910219</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>16.56826776492263</v>
+        <v>11.26085625534334</v>
       </c>
       <c r="C27">
-        <v>1.966470467253179</v>
+        <v>1.336539315775556</v>
       </c>
       <c r="D27">
-        <v>8.483837245355639</v>
+        <v>5.766159327527258</v>
       </c>
       <c r="E27">
-        <v>1.45112192385373</v>
+        <v>0.9862754287500155</v>
       </c>
       <c r="F27">
-        <v>5.736523649883988</v>
+        <v>3.898908995392059</v>
       </c>
       <c r="G27">
-        <v>5.581855284433979</v>
+        <v>3.793786465065207</v>
       </c>
       <c r="H27">
-        <v>1.170172948839855</v>
+        <v>0.7953245057201894</v>
       </c>
       <c r="I27">
-        <v>40.95824928454299</v>
+        <v>27.83785029357362</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>16.7941473527198</v>
+        <v>11.41437849467998</v>
       </c>
       <c r="C28">
-        <v>1.810401382550545</v>
+        <v>1.23046476690448</v>
       </c>
       <c r="D28">
-        <v>6.643968927085742</v>
+        <v>4.515666943244237</v>
       </c>
       <c r="E28">
-        <v>1.45112192385373</v>
+        <v>0.9862754287500155</v>
       </c>
       <c r="F28">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="G28">
-        <v>5.923601526338102</v>
+        <v>4.026059105783483</v>
       </c>
       <c r="H28">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I28">
-        <v>38.48778626975267</v>
+        <v>26.15876535310723</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>17.52825601306062</v>
+        <v>11.9133257725241</v>
       </c>
       <c r="C29">
-        <v>1.935256650312652</v>
+        <v>1.31532440600134</v>
       </c>
       <c r="D29">
-        <v>5.621819861380242</v>
+        <v>3.820948951975893</v>
       </c>
       <c r="E29">
-        <v>1.554773489843281</v>
+        <v>1.056723673660731</v>
       </c>
       <c r="F29">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="G29">
-        <v>4.784447386657696</v>
+        <v>3.251816970055891</v>
       </c>
       <c r="H29">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I29">
-        <v>37.01048595159259</v>
+        <v>25.15469741041056</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>18.19460079706227</v>
+        <v>12.36621637856722</v>
       </c>
       <c r="C30">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="D30">
-        <v>4.701885702245293</v>
+        <v>3.195702759834383</v>
       </c>
       <c r="E30">
-        <v>1.762076621822386</v>
+        <v>1.197620163482161</v>
       </c>
       <c r="F30">
-        <v>6.389692184276721</v>
+        <v>4.342844178035708</v>
       </c>
       <c r="G30">
-        <v>5.354024456497898</v>
+        <v>3.638938037919688</v>
       </c>
       <c r="H30">
-        <v>0.6686702564799173</v>
+        <v>0.4544711461258225</v>
       </c>
       <c r="I30">
-        <v>38.75649613317293</v>
+        <v>26.3413977917726</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>16.35368215651532</v>
+        <v>11.11501012797351</v>
       </c>
       <c r="C31">
-        <v>1.685546114788439</v>
+        <v>1.145605127807619</v>
       </c>
       <c r="D31">
-        <v>6.235109300803538</v>
+        <v>4.2377797467369</v>
       </c>
       <c r="E31">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F31">
-        <v>4.998159219700902</v>
+        <v>3.397069223707931</v>
       </c>
       <c r="G31">
-        <v>3.759208660945333</v>
+        <v>2.554999047901058</v>
       </c>
       <c r="H31">
-        <v>0.3343351282399586</v>
+        <v>0.2272355730629113</v>
       </c>
       <c r="I31">
-        <v>35.23176876880542</v>
+        <v>23.94576725558281</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>18.21718875584199</v>
+        <v>12.38156860250088</v>
       </c>
       <c r="C32">
-        <v>1.498263213145279</v>
+        <v>1.018315669162328</v>
       </c>
       <c r="D32">
-        <v>9.403771404490586</v>
+        <v>6.391405519668766</v>
       </c>
       <c r="E32">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F32">
-        <v>5.736523649883988</v>
+        <v>3.898908995392059</v>
       </c>
       <c r="G32">
-        <v>3.531377833009253</v>
+        <v>2.400150620755539</v>
       </c>
       <c r="H32">
-        <v>0.78011529922657</v>
+        <v>0.5302163371467928</v>
       </c>
       <c r="I32">
-        <v>41.03296834340961</v>
+        <v>27.88863415301925</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>18.30754059096085</v>
+        <v>12.44297749823555</v>
       </c>
       <c r="C33">
-        <v>1.560690847026332</v>
+        <v>1.060745488710758</v>
       </c>
       <c r="D33">
-        <v>7.97276271250289</v>
+        <v>5.418800331893085</v>
       </c>
       <c r="E33">
-        <v>2.694940715728355</v>
+        <v>1.8316543676786</v>
       </c>
       <c r="F33">
-        <v>5.310544170932208</v>
+        <v>3.609386050189678</v>
       </c>
       <c r="G33">
-        <v>4.442701144753576</v>
+        <v>3.019544329337613</v>
       </c>
       <c r="H33">
-        <v>0.7243927778532436</v>
+        <v>0.4923437416363077</v>
       </c>
       <c r="I33">
-        <v>41.01357295975746</v>
+        <v>27.87545180768159</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>21.85385011937647</v>
+        <v>14.85327665582096</v>
       </c>
       <c r="C34">
-        <v>1.342194128442646</v>
+        <v>0.9122411202912521</v>
       </c>
       <c r="D34">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="E34">
-        <v>5.493532997446263</v>
+        <v>3.733756980267916</v>
       </c>
       <c r="F34">
-        <v>4.430186581098527</v>
+        <v>3.011038630104757</v>
       </c>
       <c r="G34">
-        <v>2.506139107296889</v>
+        <v>1.703332698600705</v>
       </c>
       <c r="H34">
-        <v>0.5572252137332642</v>
+        <v>0.3787259551048521</v>
       </c>
       <c r="I34">
-        <v>43.13374179419144</v>
+        <v>29.31645438081518</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>22.81383836751447</v>
+        <v>15.50574617300173</v>
       </c>
       <c r="C35">
-        <v>1.030055959037379</v>
+        <v>0.7000920225491005</v>
       </c>
       <c r="D35">
-        <v>5.724034767950794</v>
+        <v>3.890420751102728</v>
       </c>
       <c r="E35">
-        <v>6.115442393383575</v>
+        <v>4.156446449732207</v>
       </c>
       <c r="F35">
-        <v>3.43623446354437</v>
+        <v>2.335485091299203</v>
       </c>
       <c r="G35">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="H35">
-        <v>0.4457801709866115</v>
+        <v>0.3029807640838816</v>
       </c>
       <c r="I35">
-        <v>41.16020191796976</v>
+        <v>27.97511024178748</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>17.16684867258513</v>
+        <v>11.66769018958546</v>
       </c>
       <c r="C36">
-        <v>0.8427730573942195</v>
+        <v>0.5728025639038096</v>
       </c>
       <c r="D36">
-        <v>5.826249674521343</v>
+        <v>3.959892550229562</v>
       </c>
       <c r="E36">
-        <v>6.42639709135223</v>
+        <v>4.367791184464354</v>
       </c>
       <c r="F36">
-        <v>2.129897394758907</v>
+        <v>1.447614726011903</v>
       </c>
       <c r="G36">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="H36">
-        <v>0.2786126068666321</v>
+        <v>0.1893629775524261</v>
       </c>
       <c r="I36">
-        <v>34.15167887906298</v>
+        <v>23.21166896819339</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>15.93580491909055</v>
+        <v>10.83099398520071</v>
       </c>
       <c r="C37">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="D37">
-        <v>3.373091916828145</v>
+        <v>2.292569371185536</v>
       </c>
       <c r="E37">
-        <v>6.322745525362682</v>
+        <v>4.297342939553638</v>
       </c>
       <c r="F37">
-        <v>1.845911075457719</v>
+        <v>1.254599429210316</v>
       </c>
       <c r="G37">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="H37">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I37">
-        <v>30.3059059404556</v>
+        <v>20.59783529126346</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>12.6718448754214</v>
+        <v>8.612597626786108</v>
       </c>
       <c r="C38">
-        <v>0.4682072541078996</v>
+        <v>0.3182236466132276</v>
       </c>
       <c r="D38">
-        <v>2.759802477404846</v>
+        <v>1.875738576424529</v>
       </c>
       <c r="E38">
-        <v>4.353365771561188</v>
+        <v>2.958826286250047</v>
       </c>
       <c r="F38">
-        <v>1.192742541064988</v>
+        <v>0.8106642465666654</v>
       </c>
       <c r="G38">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="H38">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I38">
-        <v>23.49396999976366</v>
+        <v>15.96800720439846</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>9.069065450056495</v>
+        <v>6.163917909366529</v>
       </c>
       <c r="C39">
-        <v>0.6554901557510594</v>
+        <v>0.4455131052585184</v>
       </c>
       <c r="D39">
-        <v>1.328793785417148</v>
+        <v>0.9031333886488474</v>
       </c>
       <c r="E39">
-        <v>1.865728187811938</v>
+        <v>1.268068408392877</v>
       </c>
       <c r="F39">
-        <v>0.8519589579035627</v>
+        <v>0.5790458904047612</v>
       </c>
       <c r="G39">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="H39">
-        <v>0.1671675641199793</v>
+        <v>0.1136177865314556</v>
       </c>
       <c r="I39">
-        <v>15.07735824074059</v>
+        <v>10.24753862433058</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>5.342052251403136</v>
+        <v>3.63080096031179</v>
       </c>
       <c r="C40">
-        <v>0.7491316065726394</v>
+        <v>0.509157834581164</v>
       </c>
       <c r="D40">
-        <v>1.431008691987699</v>
+        <v>0.9726051877756821</v>
       </c>
       <c r="E40">
-        <v>0.8292125279164169</v>
+        <v>0.5635859592857231</v>
       </c>
       <c r="F40">
-        <v>0.6815671663228503</v>
+        <v>0.4632367123238089</v>
       </c>
       <c r="G40">
-        <v>1.594815795552566</v>
+        <v>1.08393899001863</v>
       </c>
       <c r="I40">
-        <v>10.62778803975531</v>
+        <v>7.223325644296798</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>4.122302477298405</v>
+        <v>2.801780867893876</v>
       </c>
       <c r="C41">
-        <v>0.7803454235131659</v>
+        <v>0.5303727443553792</v>
       </c>
       <c r="D41">
-        <v>0.5110745328527493</v>
+        <v>0.3473589956341721</v>
       </c>
       <c r="E41">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="F41">
-        <v>0.5395740066722564</v>
+        <v>0.3667290639230154</v>
       </c>
       <c r="G41">
-        <v>1.936562037456687</v>
+        <v>1.316211630736908</v>
       </c>
       <c r="I41">
-        <v>8.304464741751472</v>
+        <v>5.644246282186212</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>2.676673115396497</v>
+        <v>1.819238536139313</v>
       </c>
       <c r="C42">
-        <v>0.8739868743347459</v>
+        <v>0.5940174736780247</v>
       </c>
       <c r="D42">
-        <v>0.8177192525643989</v>
+        <v>0.5557743930146755</v>
       </c>
       <c r="E42">
-        <v>0.5182578299477607</v>
+        <v>0.352241224553577</v>
       </c>
       <c r="F42">
-        <v>0.5679726386023753</v>
+        <v>0.386030593603174</v>
       </c>
       <c r="G42">
-        <v>1.708731209520606</v>
+        <v>1.16136320359139</v>
       </c>
       <c r="I42">
-        <v>7.163340920366384</v>
+        <v>4.868665424580153</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.874800578716535</v>
+        <v>1.274234586494202</v>
       </c>
       <c r="C43">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="D43">
-        <v>1.533223598558248</v>
+        <v>1.042076986902516</v>
       </c>
       <c r="E43">
-        <v>0.2073031319791042</v>
+        <v>0.1408964898214308</v>
       </c>
       <c r="F43">
-        <v>0.4543781108819002</v>
+        <v>0.3088244748825393</v>
       </c>
       <c r="G43">
-        <v>1.139154139680404</v>
+        <v>0.7742421357275929</v>
       </c>
       <c r="H43">
-        <v>0.05572252137332644</v>
+        <v>0.0378725955104852</v>
       </c>
       <c r="I43">
-        <v>6.232210406345844</v>
+        <v>4.235809472339437</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>2.078092207733991</v>
+        <v>1.412404601897187</v>
       </c>
       <c r="C44">
-        <v>0.967628325156326</v>
+        <v>0.6576622030006701</v>
       </c>
       <c r="D44">
-        <v>1.022149065705499</v>
+        <v>0.6947179912683442</v>
       </c>
       <c r="E44">
-        <v>0.4146062639582084</v>
+        <v>0.2817929796428615</v>
       </c>
       <c r="F44">
-        <v>0.6247699024626128</v>
+        <v>0.4246336529634914</v>
       </c>
       <c r="G44">
-        <v>0.6834924838082423</v>
+        <v>0.4645452814365559</v>
       </c>
       <c r="I44">
-        <v>5.790738248824879</v>
+        <v>3.93575671020911</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>2.800906888684943</v>
+        <v>1.903675767774468</v>
       </c>
       <c r="C45">
-        <v>0.3121381694052664</v>
+        <v>0.2121490977421517</v>
       </c>
       <c r="D45">
-        <v>1.942083224840448</v>
+        <v>1.319964183409854</v>
       </c>
       <c r="E45">
-        <v>0.6219093959373129</v>
+        <v>0.4226894694642921</v>
       </c>
       <c r="F45">
-        <v>1.050749381414394</v>
+        <v>0.7141565981658721</v>
       </c>
       <c r="G45">
-        <v>1.480900381584525</v>
+        <v>1.006514776445871</v>
       </c>
       <c r="H45">
-        <v>0.2228900854933057</v>
+        <v>0.1514903820419408</v>
       </c>
       <c r="I45">
-        <v>8.431577527360195</v>
+        <v>5.73064027504445</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>6.505332128558578</v>
+        <v>4.42144049289554</v>
       </c>
       <c r="C46">
-        <v>0.2497105355242132</v>
+        <v>0.1697192781937213</v>
       </c>
       <c r="D46">
-        <v>3.066447197116496</v>
+        <v>2.084153973805033</v>
       </c>
       <c r="E46">
-        <v>3.109546979686563</v>
+        <v>2.113447347321462</v>
       </c>
       <c r="F46">
-        <v>3.237444040033539</v>
+        <v>2.200374383538092</v>
       </c>
       <c r="G46">
-        <v>5.012278214593779</v>
+        <v>3.40666539720141</v>
       </c>
       <c r="H46">
-        <v>0.1114450427466529</v>
+        <v>0.07574519102097041</v>
       </c>
       <c r="I46">
-        <v>21.29220413825982</v>
+        <v>14.47154606397623</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>12.36690743189521</v>
+        <v>8.405342603681632</v>
       </c>
       <c r="C47">
-        <v>0.5306348879889531</v>
+        <v>0.3606534661616579</v>
       </c>
       <c r="D47">
-        <v>5.212960235098041</v>
+        <v>3.543061755468556</v>
       </c>
       <c r="E47">
-        <v>9.017686241091033</v>
+        <v>6.128997307232238</v>
       </c>
       <c r="F47">
-        <v>4.770970164259952</v>
+        <v>3.242656986266661</v>
       </c>
       <c r="G47">
-        <v>7.062755666018506</v>
+        <v>4.800301241511078</v>
       </c>
       <c r="H47">
-        <v>0.6129477351065907</v>
+        <v>0.4165985506153373</v>
       </c>
       <c r="I47">
-        <v>39.57486236145828</v>
+        <v>26.89761191093716</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>17.78801753902736</v>
+        <v>12.08987634776125</v>
       </c>
       <c r="C48">
-        <v>0.811559240453693</v>
+        <v>0.5515876541295943</v>
       </c>
       <c r="D48">
-        <v>5.519604954809692</v>
+        <v>3.751477152849059</v>
       </c>
       <c r="E48">
-        <v>9.846898769007453</v>
+        <v>6.692583266517961</v>
       </c>
       <c r="F48">
-        <v>5.026557851631022</v>
+        <v>3.41637075338809</v>
       </c>
       <c r="G48">
-        <v>8.999317703475191</v>
+        <v>6.116512872247986</v>
       </c>
       <c r="H48">
-        <v>0.9472828633465497</v>
+        <v>0.6438341236782484</v>
       </c>
       <c r="I48">
-        <v>48.93923892175097</v>
+        <v>33.26224217057219</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>19.34658669482786</v>
+        <v>13.14917979918414</v>
       </c>
       <c r="C49">
-        <v>1.404621762323699</v>
+        <v>0.9546709398396825</v>
       </c>
       <c r="D49">
-        <v>6.95061364679739</v>
+        <v>4.724082340624741</v>
       </c>
       <c r="E49">
-        <v>4.664320469529844</v>
+        <v>3.170171020982193</v>
       </c>
       <c r="F49">
-        <v>5.140152379351496</v>
+        <v>3.493576872108725</v>
       </c>
       <c r="G49">
-        <v>6.15143235427418</v>
+        <v>4.180907532929003</v>
       </c>
       <c r="H49">
-        <v>0.390057649613285</v>
+        <v>0.2651081685733964</v>
       </c>
       <c r="I49">
-        <v>44.04778495671776</v>
+        <v>29.93769667424187</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
+++ b/output/경기대로_여름_배출량/경기대로_여름_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>11.59092906991713</v>
+        <v>17.05390887868655</v>
       </c>
       <c r="C2">
-        <v>1.081960398484973</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="D2">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E2">
-        <v>2.395240326964322</v>
+        <v>3.524153243644772</v>
       </c>
       <c r="F2">
-        <v>3.41637075338809</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="G2">
-        <v>4.103483319356244</v>
+        <v>6.037516940306141</v>
       </c>
       <c r="H2">
-        <v>0.3408533595943669</v>
+        <v>0.5015026923599379</v>
       </c>
       <c r="I2">
-        <v>27.79186316658354</v>
+        <v>40.89058773053376</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>10.9231073288027</v>
+        <v>16.07133267176885</v>
       </c>
       <c r="C3">
-        <v>1.378969135323986</v>
+        <v>2.028898101134232</v>
       </c>
       <c r="D3">
-        <v>5.974574724907761</v>
+        <v>8.790481965067285</v>
       </c>
       <c r="E3">
-        <v>0.9158271838393002</v>
+        <v>1.347470357864177</v>
       </c>
       <c r="F3">
-        <v>3.763798287630947</v>
+        <v>5.537733226373159</v>
       </c>
       <c r="G3">
-        <v>3.638938037919688</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="H3">
-        <v>0.8710696967411601</v>
+        <v>1.281617991586508</v>
       </c>
       <c r="I3">
-        <v>27.46628439516554</v>
+        <v>40.41155877029211</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>10.20922891588728</v>
+        <v>15.02099258851199</v>
       </c>
       <c r="C4">
-        <v>1.081960398484973</v>
+        <v>1.591904663966859</v>
       </c>
       <c r="D4">
-        <v>2.98728736245388</v>
+        <v>4.395240982533642</v>
       </c>
       <c r="E4">
-        <v>0.8453789389285843</v>
+        <v>1.243818791874626</v>
       </c>
       <c r="F4">
-        <v>2.991737100424599</v>
+        <v>4.401787949168408</v>
       </c>
       <c r="G4">
-        <v>3.484089610774168</v>
+        <v>5.126193628561817</v>
       </c>
       <c r="H4">
-        <v>0.7574519102097043</v>
+        <v>1.114450427466528</v>
       </c>
       <c r="I4">
-        <v>22.35713423716319</v>
+        <v>32.89438903208387</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>11.84424076482261</v>
+        <v>17.42661019855188</v>
       </c>
       <c r="C5">
-        <v>1.166820037581834</v>
+        <v>1.716759931728966</v>
       </c>
       <c r="D5">
-        <v>4.029364349356396</v>
+        <v>5.928464581091893</v>
       </c>
       <c r="E5">
-        <v>1.479413143125023</v>
+        <v>2.176682885780594</v>
       </c>
       <c r="F5">
-        <v>3.609386050189678</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="G5">
-        <v>2.864695902192095</v>
+        <v>4.214870316817495</v>
       </c>
       <c r="H5">
-        <v>0.6438341236782484</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="I5">
-        <v>25.63775437094589</v>
+        <v>37.7212149482496</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>11.01522067240469</v>
+        <v>16.20686042444715</v>
       </c>
       <c r="C6">
-        <v>1.209249857130265</v>
+        <v>1.779187565610019</v>
       </c>
       <c r="D6">
-        <v>4.932497738005243</v>
+        <v>7.257258366509039</v>
       </c>
       <c r="E6">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F6">
-        <v>3.86030593603174</v>
+        <v>5.679726386023754</v>
       </c>
       <c r="G6">
-        <v>2.942120115764855</v>
+        <v>4.328785730785537</v>
       </c>
       <c r="H6">
-        <v>0.5680889326572781</v>
+        <v>0.8358378205998964</v>
       </c>
       <c r="I6">
-        <v>25.79555166038695</v>
+        <v>37.95338448178735</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>11.81353631695528</v>
+        <v>17.38143428099244</v>
       </c>
       <c r="C7">
-        <v>1.251679676678695</v>
+        <v>1.841615199491072</v>
       </c>
       <c r="D7">
-        <v>5.696687528400423</v>
+        <v>8.381622338785089</v>
       </c>
       <c r="E7">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F7">
-        <v>4.053321232833328</v>
+        <v>5.963712705324939</v>
       </c>
       <c r="G7">
-        <v>2.787271688619335</v>
+        <v>4.100954902849455</v>
       </c>
       <c r="H7">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I7">
-        <v>27.36290859351625</v>
+        <v>40.25946039310818</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>12.07452412382758</v>
+        <v>17.76542958024764</v>
       </c>
       <c r="C8">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D8">
-        <v>5.557743930146754</v>
+        <v>8.177192525643989</v>
       </c>
       <c r="E8">
-        <v>1.408964898214308</v>
+        <v>2.073031319791043</v>
       </c>
       <c r="F8">
-        <v>3.783099817311106</v>
+        <v>5.566131858303279</v>
       </c>
       <c r="G8">
-        <v>2.400150620755539</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="H8">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I8">
-        <v>26.6351966866363</v>
+        <v>39.18876688139693</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>13.50228094965843</v>
+        <v>19.86610974676135</v>
       </c>
       <c r="C9">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D9">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E9">
-        <v>2.254343837142892</v>
+        <v>3.316850111665667</v>
       </c>
       <c r="F9">
-        <v>3.358466164347614</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="G9">
-        <v>2.554999047901058</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="H9">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I9">
-        <v>28.0104599772545</v>
+        <v>41.21221251728442</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>14.66137385665015</v>
+        <v>21.57150063463001</v>
       </c>
       <c r="C10">
-        <v>1.294109496227125</v>
+        <v>1.904042833372125</v>
       </c>
       <c r="D10">
-        <v>4.446195144117404</v>
+        <v>6.541754020515191</v>
       </c>
       <c r="E10">
-        <v>4.226894694642924</v>
+        <v>6.219093959373126</v>
       </c>
       <c r="F10">
-        <v>3.223355456586503</v>
+        <v>4.742571532329834</v>
       </c>
       <c r="G10">
-        <v>1.935605339318982</v>
+        <v>2.84788534920101</v>
       </c>
       <c r="H10">
-        <v>0.2272355730629113</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="I10">
-        <v>30.01476956060601</v>
+        <v>44.16118345766125</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>15.58250729267006</v>
+        <v>22.92677816141303</v>
       </c>
       <c r="C11">
-        <v>0.8061665714201763</v>
+        <v>1.186125043740012</v>
       </c>
       <c r="D11">
-        <v>3.820948951975893</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="E11">
-        <v>4.508687674285785</v>
+        <v>6.633700223331335</v>
       </c>
       <c r="F11">
-        <v>1.795042260254759</v>
+        <v>2.641072769501045</v>
       </c>
       <c r="G11">
-        <v>0.3871210678637965</v>
+        <v>0.5695770698402021</v>
       </c>
       <c r="H11">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I11">
-        <v>27.16558198704386</v>
+        <v>39.96913077881915</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>11.35296959894532</v>
+        <v>16.70379551760093</v>
       </c>
       <c r="C12">
-        <v>0.6788771127748854</v>
+        <v>0.9988421420968526</v>
       </c>
       <c r="D12">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E12">
-        <v>2.7474815515179</v>
+        <v>4.042411073592534</v>
       </c>
       <c r="F12">
-        <v>1.602026963453173</v>
+        <v>2.357086450199857</v>
       </c>
       <c r="G12">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="H12">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I12">
-        <v>21.19918751811533</v>
+        <v>31.19068454783606</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>9.902184437213975</v>
+        <v>14.56923341291765</v>
       </c>
       <c r="C13">
-        <v>0.4667280150327337</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="D13">
-        <v>2.292569371185536</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="E13">
-        <v>3.663308735357201</v>
+        <v>5.389881431456709</v>
       </c>
       <c r="F13">
-        <v>1.003679543368253</v>
+        <v>1.476728860366175</v>
       </c>
       <c r="G13">
-        <v>1.393635844309667</v>
+        <v>2.050477451424727</v>
       </c>
       <c r="H13">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I13">
-        <v>18.91146892401979</v>
+        <v>27.82472965255162</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>7.844986430102852</v>
+        <v>11.54244693643554</v>
       </c>
       <c r="C14">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D14">
-        <v>2.36204117031237</v>
+        <v>3.475306823398695</v>
       </c>
       <c r="E14">
-        <v>2.324792082053608</v>
+        <v>3.42050167765522</v>
       </c>
       <c r="F14">
-        <v>0.6755535388055546</v>
+        <v>0.9939521175541566</v>
       </c>
       <c r="G14">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H14">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I14">
-        <v>14.88375847455553</v>
+        <v>21.89869847933281</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,25 +815,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>5.542152840053093</v>
+        <v>8.154253119477943</v>
       </c>
       <c r="C15">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D15">
-        <v>1.528379580790358</v>
+        <v>2.248727944552097</v>
       </c>
       <c r="E15">
-        <v>1.338516653303593</v>
+        <v>1.96937975380149</v>
       </c>
       <c r="F15">
-        <v>0.5790458904047612</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="G15">
-        <v>0.9290905628731118</v>
+        <v>1.366984967616485</v>
       </c>
       <c r="I15">
-        <v>10.48998809132872</v>
+        <v>15.4340778007458</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,25 +841,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>3.408193713273647</v>
+        <v>5.014526849097238</v>
       </c>
       <c r="C16">
-        <v>0.4667280150327337</v>
+        <v>0.686703972691586</v>
       </c>
       <c r="D16">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E16">
-        <v>0.704482449107154</v>
+        <v>1.036515659895521</v>
       </c>
       <c r="F16">
-        <v>0.4439351826436502</v>
+        <v>0.6531685343927315</v>
       </c>
       <c r="G16">
-        <v>0.8516663493003526</v>
+        <v>1.253069553648445</v>
       </c>
       <c r="I16">
-        <v>6.917082696260054</v>
+        <v>10.17720816828377</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,25 +867,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>2.648258628557227</v>
+        <v>3.896422889501232</v>
       </c>
       <c r="C17">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D17">
-        <v>0.3473589956341721</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="E17">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F17">
-        <v>0.2509198858420632</v>
+        <v>0.3691822150915439</v>
       </c>
       <c r="G17">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="I17">
-        <v>5.051610979301435</v>
+        <v>7.432511476165482</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,25 +893,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>1.727125192537321</v>
+        <v>2.541145362718194</v>
       </c>
       <c r="C18">
-        <v>0.5940174736780247</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="D18">
-        <v>0.62524619214151</v>
+        <v>0.9199341591349488</v>
       </c>
       <c r="E18">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F18">
-        <v>0.4632367123238089</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="G18">
-        <v>0.6193937085820745</v>
+        <v>0.9113233117443232</v>
       </c>
       <c r="I18">
-        <v>4.310812258905601</v>
+        <v>6.34256313821327</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>1.02859900355556</v>
+        <v>1.513393238241058</v>
       </c>
       <c r="C19">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D19">
-        <v>0.833661589522013</v>
+        <v>1.226578878846598</v>
       </c>
       <c r="E19">
-        <v>0.07044824491071539</v>
+        <v>0.1036515659895521</v>
       </c>
       <c r="F19">
-        <v>0.2123168264817457</v>
+        <v>0.3123849512313064</v>
       </c>
       <c r="G19">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H19">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I19">
-        <v>4.029482635072807</v>
+        <v>5.928638616651694</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>1.243530138626872</v>
+        <v>1.829624661157101</v>
       </c>
       <c r="C20">
-        <v>0.4030832857100882</v>
+        <v>0.5930625218700062</v>
       </c>
       <c r="D20">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E20">
-        <v>0.2113447347321461</v>
+        <v>0.3109546979686564</v>
       </c>
       <c r="F20">
-        <v>0.4246336529634914</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="G20">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H20">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I20">
-        <v>4.44648038446423</v>
+        <v>6.542173698942515</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,25 +977,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>2.133959126779446</v>
+        <v>3.139726270380701</v>
       </c>
       <c r="C21">
-        <v>0.1909341879679365</v>
+        <v>0.2809243524647397</v>
       </c>
       <c r="D21">
-        <v>1.458907781663523</v>
+        <v>2.146513037981547</v>
       </c>
       <c r="E21">
-        <v>0.4931377143750078</v>
+        <v>0.7255609619268649</v>
       </c>
       <c r="F21">
-        <v>0.7527596575261893</v>
+        <v>1.107546645274632</v>
       </c>
       <c r="G21">
-        <v>1.780756912173465</v>
+        <v>2.620054521264929</v>
       </c>
       <c r="I21">
-        <v>6.810455380485568</v>
+        <v>10.02032578929341</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>4.290946589459389</v>
+        <v>6.313334478930984</v>
       </c>
       <c r="C22">
-        <v>0.1697192781937213</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="D22">
-        <v>2.153625772931867</v>
+        <v>3.168662103687046</v>
       </c>
       <c r="E22">
-        <v>2.042999102410746</v>
+        <v>3.005895413697013</v>
       </c>
       <c r="F22">
-        <v>2.123168264817457</v>
+        <v>3.123849512313063</v>
       </c>
       <c r="G22">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H22">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I22">
-        <v>14.10802116889004</v>
+        <v>20.75734447355667</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>8.152030908776158</v>
+        <v>11.99420611202987</v>
       </c>
       <c r="C23">
-        <v>0.381868375935873</v>
+        <v>0.5618487049294794</v>
       </c>
       <c r="D23">
-        <v>3.682005353722225</v>
+        <v>5.417390048239142</v>
       </c>
       <c r="E23">
-        <v>5.917652572500093</v>
+        <v>8.706731543122377</v>
       </c>
       <c r="F23">
-        <v>3.12684780818571</v>
+        <v>4.60057837267924</v>
       </c>
       <c r="G23">
-        <v>4.5680286007928</v>
+        <v>6.721009424114385</v>
       </c>
       <c r="H23">
-        <v>0.4544711461258225</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="I23">
-        <v>26.28290476603868</v>
+        <v>38.67043446159442</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>11.72909908532012</v>
+        <v>17.257200507704</v>
       </c>
       <c r="C24">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D24">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E24">
-        <v>6.410790286875103</v>
+        <v>9.432292505049245</v>
       </c>
       <c r="F24">
-        <v>3.300561575307137</v>
+        <v>4.856166060050308</v>
       </c>
       <c r="G24">
-        <v>5.806816017956947</v>
+        <v>8.543656047603029</v>
       </c>
       <c r="H24">
-        <v>0.6817067191887337</v>
+        <v>1.003005384719876</v>
       </c>
       <c r="I24">
-        <v>32.39219699965457</v>
+        <v>47.65912833047147</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>12.75002197690885</v>
+        <v>18.75929976655521</v>
       </c>
       <c r="C25">
-        <v>0.9758858496138976</v>
+        <v>1.435835579264226</v>
       </c>
       <c r="D25">
-        <v>4.86302593887841</v>
+        <v>7.155043459938489</v>
       </c>
       <c r="E25">
-        <v>3.029274531160762</v>
+        <v>4.457017337550742</v>
       </c>
       <c r="F25">
-        <v>3.358466164347614</v>
+        <v>4.941361955840663</v>
       </c>
       <c r="G25">
-        <v>3.948634892210725</v>
+        <v>5.809686112370061</v>
       </c>
       <c r="H25">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I25">
-        <v>29.22829011720415</v>
+        <v>43.004024382506</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>11.95170633235827</v>
+        <v>17.58472591000991</v>
       </c>
       <c r="C26">
-        <v>1.039530578936543</v>
+        <v>1.529477030085806</v>
       </c>
       <c r="D26">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E26">
-        <v>2.465688571875039</v>
+        <v>3.627804809634324</v>
       </c>
       <c r="F26">
-        <v>3.551481461149201</v>
+        <v>5.225348275141852</v>
       </c>
       <c r="G26">
-        <v>4.335755960074522</v>
+        <v>6.379263182210263</v>
       </c>
       <c r="H26">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I26">
-        <v>28.37122600910219</v>
+        <v>41.74301302486616</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>11.26085625534334</v>
+        <v>16.56826776492263</v>
       </c>
       <c r="C27">
-        <v>1.336539315775556</v>
+        <v>1.966470467253179</v>
       </c>
       <c r="D27">
-        <v>5.766159327527258</v>
+        <v>8.483837245355639</v>
       </c>
       <c r="E27">
-        <v>0.9862754287500155</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="F27">
-        <v>3.898908995392059</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="G27">
-        <v>3.793786465065207</v>
+        <v>5.581855284433979</v>
       </c>
       <c r="H27">
-        <v>0.7953245057201894</v>
+        <v>1.170172948839855</v>
       </c>
       <c r="I27">
-        <v>27.83785029357362</v>
+        <v>40.95824928454299</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>11.41437849467998</v>
+        <v>16.7941473527198</v>
       </c>
       <c r="C28">
-        <v>1.23046476690448</v>
+        <v>1.810401382550545</v>
       </c>
       <c r="D28">
-        <v>4.515666943244237</v>
+        <v>6.643968927085742</v>
       </c>
       <c r="E28">
-        <v>0.9862754287500155</v>
+        <v>1.45112192385373</v>
       </c>
       <c r="F28">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G28">
-        <v>4.026059105783483</v>
+        <v>5.923601526338102</v>
       </c>
       <c r="H28">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I28">
-        <v>26.15876535310723</v>
+        <v>38.48778626975267</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>11.9133257725241</v>
+        <v>17.52825601306062</v>
       </c>
       <c r="C29">
-        <v>1.31532440600134</v>
+        <v>1.935256650312652</v>
       </c>
       <c r="D29">
-        <v>3.820948951975893</v>
+        <v>5.621819861380242</v>
       </c>
       <c r="E29">
-        <v>1.056723673660731</v>
+        <v>1.554773489843281</v>
       </c>
       <c r="F29">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G29">
-        <v>3.251816970055891</v>
+        <v>4.784447386657696</v>
       </c>
       <c r="H29">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I29">
-        <v>25.15469741041056</v>
+        <v>37.01048595159259</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>12.36621637856722</v>
+        <v>18.19460079706227</v>
       </c>
       <c r="C30">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D30">
-        <v>3.195702759834383</v>
+        <v>4.701885702245293</v>
       </c>
       <c r="E30">
-        <v>1.197620163482161</v>
+        <v>1.762076621822386</v>
       </c>
       <c r="F30">
-        <v>4.342844178035708</v>
+        <v>6.389692184276721</v>
       </c>
       <c r="G30">
-        <v>3.638938037919688</v>
+        <v>5.354024456497898</v>
       </c>
       <c r="H30">
-        <v>0.4544711461258225</v>
+        <v>0.6686702564799173</v>
       </c>
       <c r="I30">
-        <v>26.3413977917726</v>
+        <v>38.75649613317293</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>11.11501012797351</v>
+        <v>16.35368215651532</v>
       </c>
       <c r="C31">
-        <v>1.145605127807619</v>
+        <v>1.685546114788439</v>
       </c>
       <c r="D31">
-        <v>4.2377797467369</v>
+        <v>6.235109300803538</v>
       </c>
       <c r="E31">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F31">
-        <v>3.397069223707931</v>
+        <v>4.998159219700902</v>
       </c>
       <c r="G31">
-        <v>2.554999047901058</v>
+        <v>3.759208660945333</v>
       </c>
       <c r="H31">
-        <v>0.2272355730629113</v>
+        <v>0.3343351282399586</v>
       </c>
       <c r="I31">
-        <v>23.94576725558281</v>
+        <v>35.23176876880542</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>12.38156860250088</v>
+        <v>18.21718875584199</v>
       </c>
       <c r="C32">
-        <v>1.018315669162328</v>
+        <v>1.498263213145279</v>
       </c>
       <c r="D32">
-        <v>6.391405519668766</v>
+        <v>9.403771404490586</v>
       </c>
       <c r="E32">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F32">
-        <v>3.898908995392059</v>
+        <v>5.736523649883988</v>
       </c>
       <c r="G32">
-        <v>2.400150620755539</v>
+        <v>3.531377833009253</v>
       </c>
       <c r="H32">
-        <v>0.5302163371467928</v>
+        <v>0.78011529922657</v>
       </c>
       <c r="I32">
-        <v>27.88863415301925</v>
+        <v>41.03296834340961</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>12.44297749823555</v>
+        <v>18.30754059096085</v>
       </c>
       <c r="C33">
-        <v>1.060745488710758</v>
+        <v>1.560690847026332</v>
       </c>
       <c r="D33">
-        <v>5.418800331893085</v>
+        <v>7.97276271250289</v>
       </c>
       <c r="E33">
-        <v>1.8316543676786</v>
+        <v>2.694940715728355</v>
       </c>
       <c r="F33">
-        <v>3.609386050189678</v>
+        <v>5.310544170932208</v>
       </c>
       <c r="G33">
-        <v>3.019544329337613</v>
+        <v>4.442701144753576</v>
       </c>
       <c r="H33">
-        <v>0.4923437416363077</v>
+        <v>0.7243927778532436</v>
       </c>
       <c r="I33">
-        <v>27.87545180768159</v>
+        <v>41.01357295975746</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>14.85327665582096</v>
+        <v>21.85385011937647</v>
       </c>
       <c r="C34">
-        <v>0.9122411202912521</v>
+        <v>1.342194128442646</v>
       </c>
       <c r="D34">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E34">
-        <v>3.733756980267916</v>
+        <v>5.493532997446263</v>
       </c>
       <c r="F34">
-        <v>3.011038630104757</v>
+        <v>4.430186581098527</v>
       </c>
       <c r="G34">
-        <v>1.703332698600705</v>
+        <v>2.506139107296889</v>
       </c>
       <c r="H34">
-        <v>0.3787259551048521</v>
+        <v>0.5572252137332642</v>
       </c>
       <c r="I34">
-        <v>29.31645438081518</v>
+        <v>43.13374179419144</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>15.50574617300173</v>
+        <v>22.81383836751447</v>
       </c>
       <c r="C35">
-        <v>0.7000920225491005</v>
+        <v>1.030055959037379</v>
       </c>
       <c r="D35">
-        <v>3.890420751102728</v>
+        <v>5.724034767950794</v>
       </c>
       <c r="E35">
-        <v>4.156446449732207</v>
+        <v>6.115442393383575</v>
       </c>
       <c r="F35">
-        <v>2.335485091299203</v>
+        <v>3.43623446354437</v>
       </c>
       <c r="G35">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="H35">
-        <v>0.3029807640838816</v>
+        <v>0.4457801709866115</v>
       </c>
       <c r="I35">
-        <v>27.97511024178748</v>
+        <v>41.16020191796976</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>11.66769018958546</v>
+        <v>17.16684867258513</v>
       </c>
       <c r="C36">
-        <v>0.5728025639038096</v>
+        <v>0.8427730573942195</v>
       </c>
       <c r="D36">
-        <v>3.959892550229562</v>
+        <v>5.826249674521343</v>
       </c>
       <c r="E36">
-        <v>4.367791184464354</v>
+        <v>6.42639709135223</v>
       </c>
       <c r="F36">
-        <v>1.447614726011903</v>
+        <v>2.129897394758907</v>
       </c>
       <c r="G36">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H36">
-        <v>0.1893629775524261</v>
+        <v>0.2786126068666321</v>
       </c>
       <c r="I36">
-        <v>23.21166896819339</v>
+        <v>34.15167887906298</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>10.83099398520071</v>
+        <v>15.93580491909055</v>
       </c>
       <c r="C37">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D37">
-        <v>2.292569371185536</v>
+        <v>3.373091916828145</v>
       </c>
       <c r="E37">
-        <v>4.297342939553638</v>
+        <v>6.322745525362682</v>
       </c>
       <c r="F37">
-        <v>1.254599429210316</v>
+        <v>1.845911075457719</v>
       </c>
       <c r="G37">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H37">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I37">
-        <v>20.59783529126346</v>
+        <v>30.3059059404556</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>8.612597626786108</v>
+        <v>12.6718448754214</v>
       </c>
       <c r="C38">
-        <v>0.3182236466132276</v>
+        <v>0.4682072541078996</v>
       </c>
       <c r="D38">
-        <v>1.875738576424529</v>
+        <v>2.759802477404846</v>
       </c>
       <c r="E38">
-        <v>2.958826286250047</v>
+        <v>4.353365771561188</v>
       </c>
       <c r="F38">
-        <v>0.8106642465666654</v>
+        <v>1.192742541064988</v>
       </c>
       <c r="G38">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="H38">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I38">
-        <v>15.96800720439846</v>
+        <v>23.49396999976366</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>6.163917909366529</v>
+        <v>9.069065450056495</v>
       </c>
       <c r="C39">
-        <v>0.4455131052585184</v>
+        <v>0.6554901557510594</v>
       </c>
       <c r="D39">
-        <v>0.9031333886488474</v>
+        <v>1.328793785417148</v>
       </c>
       <c r="E39">
-        <v>1.268068408392877</v>
+        <v>1.865728187811938</v>
       </c>
       <c r="F39">
-        <v>0.5790458904047612</v>
+        <v>0.8519589579035627</v>
       </c>
       <c r="G39">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H39">
-        <v>0.1136177865314556</v>
+        <v>0.1671675641199793</v>
       </c>
       <c r="I39">
-        <v>10.24753862433058</v>
+        <v>15.07735824074059</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,25 +1525,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>3.63080096031179</v>
+        <v>5.342052251403136</v>
       </c>
       <c r="C40">
-        <v>0.509157834581164</v>
+        <v>0.7491316065726394</v>
       </c>
       <c r="D40">
-        <v>0.9726051877756821</v>
+        <v>1.431008691987699</v>
       </c>
       <c r="E40">
-        <v>0.5635859592857231</v>
+        <v>0.8292125279164169</v>
       </c>
       <c r="F40">
-        <v>0.4632367123238089</v>
+        <v>0.6815671663228503</v>
       </c>
       <c r="G40">
-        <v>1.08393899001863</v>
+        <v>1.594815795552566</v>
       </c>
       <c r="I40">
-        <v>7.223325644296798</v>
+        <v>10.62778803975531</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1551,25 +1551,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>2.801780867893876</v>
+        <v>4.122302477298405</v>
       </c>
       <c r="C41">
-        <v>0.5303727443553792</v>
+        <v>0.7803454235131659</v>
       </c>
       <c r="D41">
-        <v>0.3473589956341721</v>
+        <v>0.5110745328527493</v>
       </c>
       <c r="E41">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F41">
-        <v>0.3667290639230154</v>
+        <v>0.5395740066722564</v>
       </c>
       <c r="G41">
-        <v>1.316211630736908</v>
+        <v>1.936562037456687</v>
       </c>
       <c r="I41">
-        <v>5.644246282186212</v>
+        <v>8.304464741751472</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,25 +1577,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>1.819238536139313</v>
+        <v>2.676673115396497</v>
       </c>
       <c r="C42">
-        <v>0.5940174736780247</v>
+        <v>0.8739868743347459</v>
       </c>
       <c r="D42">
-        <v>0.5557743930146755</v>
+        <v>0.8177192525643989</v>
       </c>
       <c r="E42">
-        <v>0.352241224553577</v>
+        <v>0.5182578299477607</v>
       </c>
       <c r="F42">
-        <v>0.386030593603174</v>
+        <v>0.5679726386023753</v>
       </c>
       <c r="G42">
-        <v>1.16136320359139</v>
+        <v>1.708731209520606</v>
       </c>
       <c r="I42">
-        <v>4.868665424580153</v>
+        <v>7.163340920366384</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,28 +1603,28 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>1.274234586494202</v>
+        <v>1.874800578716535</v>
       </c>
       <c r="C43">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D43">
-        <v>1.042076986902516</v>
+        <v>1.533223598558248</v>
       </c>
       <c r="E43">
-        <v>0.1408964898214308</v>
+        <v>0.2073031319791042</v>
       </c>
       <c r="F43">
-        <v>0.3088244748825393</v>
+        <v>0.4543781108819002</v>
       </c>
       <c r="G43">
-        <v>0.7742421357275929</v>
+        <v>1.139154139680404</v>
       </c>
       <c r="H43">
-        <v>0.0378725955104852</v>
+        <v>0.05572252137332644</v>
       </c>
       <c r="I43">
-        <v>4.235809472339437</v>
+        <v>6.232210406345844</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1632,25 +1632,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>1.412404601897187</v>
+        <v>2.078092207733991</v>
       </c>
       <c r="C44">
-        <v>0.6576622030006701</v>
+        <v>0.967628325156326</v>
       </c>
       <c r="D44">
-        <v>0.6947179912683442</v>
+        <v>1.022149065705499</v>
       </c>
       <c r="E44">
-        <v>0.2817929796428615</v>
+        <v>0.4146062639582084</v>
       </c>
       <c r="F44">
-        <v>0.4246336529634914</v>
+        <v>0.6247699024626128</v>
       </c>
       <c r="G44">
-        <v>0.4645452814365559</v>
+        <v>0.6834924838082423</v>
       </c>
       <c r="I44">
-        <v>3.93575671020911</v>
+        <v>5.790738248824879</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1658,28 +1658,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>1.903675767774468</v>
+        <v>2.800906888684943</v>
       </c>
       <c r="C45">
-        <v>0.2121490977421517</v>
+        <v>0.3121381694052664</v>
       </c>
       <c r="D45">
-        <v>1.319964183409854</v>
+        <v>1.942083224840448</v>
       </c>
       <c r="E45">
-        <v>0.4226894694642921</v>
+        <v>0.6219093959373129</v>
       </c>
       <c r="F45">
-        <v>0.7141565981658721</v>
+        <v>1.050749381414394</v>
       </c>
       <c r="G45">
-        <v>1.006514776445871</v>
+        <v>1.480900381584525</v>
       </c>
       <c r="H45">
-        <v>0.1514903820419408</v>
+        <v>0.2228900854933057</v>
       </c>
       <c r="I45">
-        <v>5.73064027504445</v>
+        <v>8.431577527360195</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1687,28 +1687,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>4.42144049289554</v>
+        <v>6.505332128558578</v>
       </c>
       <c r="C46">
-        <v>0.1697192781937213</v>
+        <v>0.2497105355242132</v>
       </c>
       <c r="D46">
-        <v>2.084153973805033</v>
+        <v>3.066447197116496</v>
       </c>
       <c r="E46">
-        <v>2.113447347321462</v>
+        <v>3.109546979686563</v>
       </c>
       <c r="F46">
-        <v>2.200374383538092</v>
+        <v>3.237444040033539</v>
       </c>
       <c r="G46">
-        <v>3.40666539720141</v>
+        <v>5.012278214593779</v>
       </c>
       <c r="H46">
-        <v>0.07574519102097041</v>
+        <v>0.1114450427466529</v>
       </c>
       <c r="I46">
-        <v>14.47154606397623</v>
+        <v>21.29220413825982</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1716,28 +1716,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>8.405342603681632</v>
+        <v>12.36690743189521</v>
       </c>
       <c r="C47">
-        <v>0.3606534661616579</v>
+        <v>0.5306348879889531</v>
       </c>
       <c r="D47">
-        <v>3.543061755468556</v>
+        <v>5.212960235098041</v>
       </c>
       <c r="E47">
-        <v>6.128997307232238</v>
+        <v>9.017686241091033</v>
       </c>
       <c r="F47">
-        <v>3.242656986266661</v>
+        <v>4.770970164259952</v>
       </c>
       <c r="G47">
-        <v>4.800301241511078</v>
+        <v>7.062755666018506</v>
       </c>
       <c r="H47">
-        <v>0.4165985506153373</v>
+        <v>0.6129477351065907</v>
       </c>
       <c r="I47">
-        <v>26.89761191093716</v>
+        <v>39.57486236145828</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1745,28 +1745,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>12.08987634776125</v>
+        <v>17.78801753902736</v>
       </c>
       <c r="C48">
-        <v>0.5515876541295943</v>
+        <v>0.811559240453693</v>
       </c>
       <c r="D48">
-        <v>3.751477152849059</v>
+        <v>5.519604954809692</v>
       </c>
       <c r="E48">
-        <v>6.692583266517961</v>
+        <v>9.846898769007453</v>
       </c>
       <c r="F48">
-        <v>3.41637075338809</v>
+        <v>5.026557851631022</v>
       </c>
       <c r="G48">
-        <v>6.116512872247986</v>
+        <v>8.999317703475191</v>
       </c>
       <c r="H48">
-        <v>0.6438341236782484</v>
+        <v>0.9472828633465497</v>
       </c>
       <c r="I48">
-        <v>33.26224217057219</v>
+        <v>48.93923892175097</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1774,28 +1774,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>13.14917979918414</v>
+        <v>19.34658669482786</v>
       </c>
       <c r="C49">
-        <v>0.9546709398396825</v>
+        <v>1.404621762323699</v>
       </c>
       <c r="D49">
-        <v>4.724082340624741</v>
+        <v>6.95061364679739</v>
       </c>
       <c r="E49">
-        <v>3.170171020982193</v>
+        <v>4.664320469529844</v>
       </c>
       <c r="F49">
-        <v>3.493576872108725</v>
+        <v>5.140152379351496</v>
       </c>
       <c r="G49">
-        <v>4.180907532929003</v>
+        <v>6.15143235427418</v>
       </c>
       <c r="H49">
-        <v>0.2651081685733964</v>
+        <v>0.390057649613285</v>
       </c>
       <c r="I49">
-        <v>29.93769667424187</v>
+        <v>44.04778495671776</v>
       </c>
     </row>
   </sheetData>
